--- a/examples/basil/basil.xlsx
+++ b/examples/basil/basil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchwtz/sciebo2/courses/fhswf/examples/basil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23890262-C5C9-AC48-81C4-930F1DC61B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76A669-5B55-104D-B579-5E878609BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{8623488A-28B7-4C23-96D7-E881FF6C0997}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{8623488A-28B7-4C23-96D7-E881FF6C0997}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="32">
   <si>
     <t>NA</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>L1</t>
+  </si>
+  <si>
+    <t>plantid</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9512FB-4D28-4616-B9C1-9A8CBF6A23DB}">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,11 +537,12 @@
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.5" style="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -573,47 +579,50 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -650,26 +659,29 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
         <v>35.5</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2.73</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>8.33</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>7.62</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>15.37</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0.66</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -706,23 +718,26 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
         <v>32.08</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>5.34</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>13.86</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -759,26 +774,29 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
         <v>35.31</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1.51</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>6.08</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10.31</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>1.27</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -815,20 +833,23 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
         <v>34.46</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>19.41</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>14.27</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -865,26 +886,29 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
         <v>28.95</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>9.43</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>4.12</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>9.2100000000000009</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>1.39</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -921,26 +945,29 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.64</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>1.62</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>4.05</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>6.01</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>7.87</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -977,26 +1004,29 @@
       <c r="L8">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
         <v>22.99</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>6.69</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>4.49</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>5.14</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>5.12</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1033,29 +1063,32 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
         <v>27.11</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>9.3699999999999992</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.62</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>6.99</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>1.62</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1092,26 +1125,29 @@
       <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
         <v>30.74</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>8.33</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>7.85</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>0.84</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>10.64</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1148,29 +1184,32 @@
       <c r="L11">
         <v>3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
         <v>28.49</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>8.01</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>6.64</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>5.56</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>5.79</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>1.22</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>1.56</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1207,29 +1246,32 @@
       <c r="L12">
         <v>3</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1">
         <v>31.95</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>4.53</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>11.09</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>1.18</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>1.84</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>1.92</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>10.76</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1266,26 +1308,29 @@
       <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1">
         <v>37.89</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>2.98</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>15.81</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>13.72</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>3.9</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1322,29 +1367,32 @@
       <c r="L14">
         <v>3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1">
         <v>34.11</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>6.4</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>11.08</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>7.54</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>5.59</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>1.81</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>0.72</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1381,29 +1429,32 @@
       <c r="L15">
         <v>3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1">
         <v>43.13</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>9.06</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>9.33</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>6.45</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>1.65</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>13.77</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1440,26 +1491,29 @@
       <c r="L16">
         <v>4</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1">
         <v>25.07</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>5.33</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>1.62</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>6.88</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>5.32</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>5.71</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1496,23 +1550,26 @@
       <c r="L17">
         <v>4</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1">
         <v>22.42</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>1.94</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>3.9</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>10.45</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1549,23 +1606,26 @@
       <c r="L18">
         <v>4</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18" s="1">
         <v>25.25</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.25</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>8.58</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>1.57</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>14.56</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1602,26 +1662,29 @@
       <c r="L19">
         <v>4</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1">
         <v>32</v>
       </c>
-      <c r="N19" s="1">
-        <v>8</v>
-      </c>
       <c r="O19" s="1">
+        <v>8</v>
+      </c>
+      <c r="P19" s="1">
         <v>1.36</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>7.81</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>2.94</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>11.84</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1658,35 +1721,38 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20" s="1">
         <v>29.71</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>3.61</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>3.11</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>2.56</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>6.12</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>7.5</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>3.4</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>2.73</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1723,20 +1789,23 @@
       <c r="L21">
         <v>5</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" s="1">
         <v>18.72</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>5.78</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>6.51</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1773,8 +1842,8 @@
       <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>0</v>
+      <c r="M22">
+        <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>0</v>
@@ -1800,8 +1869,11 @@
       <c r="U22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1838,23 +1910,26 @@
       <c r="L23">
         <v>5</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23" s="1">
         <v>30.57</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>3.66</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>5.34</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>8.32</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>12.44</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1891,44 +1966,47 @@
       <c r="L24">
         <v>5</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1">
         <v>51.65</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>2.9</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>6.74</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>3.19</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>4.51</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>7.33</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>4.84</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>7.35</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>2.41</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <v>5.55</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1965,26 +2043,29 @@
       <c r="L25">
         <v>6</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25" s="1">
         <v>28.12</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>2.61</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>8.1</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>2.58</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>3.2</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>11.47</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2021,26 +2102,29 @@
       <c r="L26">
         <v>6</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26" s="1">
         <v>16.79</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>10.17</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>2.9</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>0.7</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2077,29 +2161,32 @@
       <c r="L27">
         <v>6</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27" s="1">
         <v>28</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>1.54</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>2.89</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>6.38</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>11.34</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2136,32 +2223,35 @@
       <c r="L28">
         <v>6</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28" s="1">
         <v>24.32</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>1.49</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>2</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>6.17</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>5.46</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>6.17</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>7.39</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>1.49</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2198,29 +2288,32 @@
       <c r="L29">
         <v>7</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29" s="1">
         <v>21.57</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>5.68</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>6.38</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>3.04</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>2.4</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>0.61</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>3.03</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2257,26 +2350,29 @@
       <c r="L30">
         <v>7</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30" s="1">
         <v>20.079999999999998</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>4.45</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>3.93</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>4.59</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>1.91</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2313,29 +2409,32 @@
       <c r="L31">
         <v>7</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31" s="1">
         <v>30.33</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>1.35</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>0.51</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>6.48</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>6.99</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>6.21</v>
       </c>
-      <c r="S31" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2372,41 +2471,44 @@
       <c r="L32">
         <v>7</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32" s="1">
         <v>29.85</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>1.18</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>6.31</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>5.44</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S32" s="1">
         <v>2.54</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>3.63</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>0.87</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>0.82</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>3.22</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2443,29 +2545,32 @@
       <c r="L33">
         <v>7</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33" s="1">
         <v>36.31</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>2.4</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>8.94</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>9.7200000000000006</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>0.82</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>8.07</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2502,44 +2607,47 @@
       <c r="L34">
         <v>8</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34" s="1">
         <v>32.64</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>0.49</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>7.64</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>4.72</v>
       </c>
-      <c r="R34" s="1">
+      <c r="S34" s="1">
         <v>6.26</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>1.39</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>0.12</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>2.67</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>1.44</v>
       </c>
-      <c r="W34" s="1">
+      <c r="X34" s="1">
         <v>0.46</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y34" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2576,26 +2684,29 @@
       <c r="L35">
         <v>8</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35" s="1">
         <v>25.14</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>5.38</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <v>9.07</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R35" s="1">
         <v>0.88</v>
       </c>
-      <c r="R35" s="1">
+      <c r="S35" s="1">
         <v>7.71</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2632,29 +2743,32 @@
       <c r="L36">
         <v>8</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36" s="1">
         <v>26.24</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>2.37</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>0.86</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>5.98</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>9</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <v>7.15</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2691,29 +2805,32 @@
       <c r="L37">
         <v>8</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37" s="1">
         <v>32.61</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>7.28</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <v>3.69</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>5.13</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>0.44</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>7.48</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2750,29 +2867,32 @@
       <c r="L38">
         <v>9</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38" s="1">
         <v>32.64</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>6.78</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>1.79</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <v>8.18</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>1.76</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>5.33</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2809,26 +2929,29 @@
       <c r="L39">
         <v>9</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39" s="1">
         <v>27.31</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>1.35</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>2.14</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>5.55</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>8.52</v>
       </c>
-      <c r="R39" s="1">
+      <c r="S39" s="1">
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2865,29 +2988,32 @@
       <c r="L40">
         <v>9</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40" s="1">
         <v>33.61</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>0.42</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>10</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>1.26</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>12.1</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>0.39</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>8.59</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2924,41 +3050,44 @@
       <c r="L41">
         <v>9</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41" s="1">
         <v>34.119999999999997</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>5.73</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>7.23</v>
       </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <v>2.89</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>7.52</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>0.43</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>0.19</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>1.03</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>0.82</v>
       </c>
-      <c r="W41" s="1">
+      <c r="X41" s="1">
         <v>7.03</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2995,29 +3124,32 @@
       <c r="L42">
         <v>9</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42" s="1">
         <v>30.11</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>4.99</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>8.34</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>4.05</v>
       </c>
-      <c r="R42" s="1">
+      <c r="S42" s="1">
         <v>2.44</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3054,29 +3186,32 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
         <v>12.72</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>0.69</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>2.21</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>3.64</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="R43" s="1">
         <v>0.61</v>
       </c>
-      <c r="R43" s="1">
+      <c r="S43" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <v>3.16</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3113,29 +3248,32 @@
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1">
         <v>42</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>9.36</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>8.18</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <v>10.69</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>3.31</v>
-      </c>
-      <c r="R44" s="1">
-        <v>5.13</v>
       </c>
       <c r="S44" s="1">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T44" s="1">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3172,29 +3310,32 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>3.29</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <v>5.18</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="R45" s="1">
         <v>3.22</v>
       </c>
-      <c r="R45" s="1">
+      <c r="S45" s="1">
         <v>1.35</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3231,26 +3372,29 @@
       <c r="L46">
         <v>1</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46" s="1">
         <v>14.92</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>2.58</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>3.89</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <v>2.23</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="R46" s="1">
         <v>2.57</v>
       </c>
-      <c r="R46" s="1">
+      <c r="S46" s="1">
         <v>3.57</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3287,29 +3431,32 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
         <v>12.42</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>2.86</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>3.08</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <v>0.91</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>2.41</v>
       </c>
-      <c r="R47" s="1">
+      <c r="S47" s="1">
         <v>2.69</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>0.37</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3346,23 +3493,26 @@
       <c r="L48">
         <v>2</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48" s="1">
         <v>21.79</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>2.67</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>11.2</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="R48" s="1">
         <v>6.53</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3399,26 +3549,29 @@
       <c r="L49">
         <v>2</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49" s="1">
         <v>27.36</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>7.31</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <v>2.88</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>8.26</v>
       </c>
-      <c r="R49" s="1">
+      <c r="S49" s="1">
         <v>4.18</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3455,29 +3608,32 @@
       <c r="L50">
         <v>2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
         <v>26.18</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>4.79</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>5.77</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>6.74</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1">
         <v>0.62</v>
       </c>
-      <c r="R50" s="1">
+      <c r="S50" s="1">
         <v>7.08</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3514,20 +3670,23 @@
       <c r="L51">
         <v>2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
+        <v>9</v>
+      </c>
+      <c r="N51" s="1">
         <v>23.63</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>5.07</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>6.57</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>11.33</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3564,26 +3723,29 @@
       <c r="L52">
         <v>3</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52" s="1">
         <v>22.51</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>6.47</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>1.61</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>2.66</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="R52" s="1">
         <v>7.17</v>
       </c>
-      <c r="R52" s="1">
+      <c r="S52" s="1">
         <v>4.53</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3620,29 +3782,32 @@
       <c r="L53">
         <v>3</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53" s="1">
         <v>30.53</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>4.04</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>7.16</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <v>2.12</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="R53" s="1">
         <v>6.48</v>
       </c>
-      <c r="R53" s="1">
+      <c r="S53" s="1">
         <v>3.99</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T53" s="1">
         <v>6.59</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3679,26 +3844,29 @@
       <c r="L54">
         <v>3</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1">
         <v>28.85</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>2.34</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>2.59</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>10.119999999999999</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="R54" s="1">
         <v>6.68</v>
       </c>
-      <c r="R54" s="1">
+      <c r="S54" s="1">
         <v>6.47</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3735,29 +3903,32 @@
       <c r="L55">
         <v>3</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55" s="1">
         <v>23.44</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>2.98</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="R55" s="1">
         <v>4.22</v>
       </c>
-      <c r="R55" s="1">
+      <c r="S55" s="1">
         <v>4.38</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T55" s="1">
         <v>3.43</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3794,20 +3965,23 @@
       <c r="L56">
         <v>3</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56" s="1">
         <v>21.1</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>7.99</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>7.53</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>5.53</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3844,29 +4018,32 @@
       <c r="L57">
         <v>4</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57" s="1">
         <v>27.72</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>2.73</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>8.99</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>8.85</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="R57" s="1">
         <v>4.42</v>
       </c>
-      <c r="R57" s="1">
+      <c r="S57" s="1">
         <v>1.38</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>0.72</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3903,29 +4080,32 @@
       <c r="L58">
         <v>4</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58" s="1">
         <v>25.17</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>1.8</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>5.67</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>3.87</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="R58" s="1">
         <v>0.15</v>
       </c>
-      <c r="R58" s="1">
+      <c r="S58" s="1">
         <v>4.84</v>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3962,26 +4142,29 @@
       <c r="L59">
         <v>4</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59" s="1">
         <v>26.28</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>7.45</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>4.79</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <v>1.79</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="R59" s="1">
         <v>4.49</v>
       </c>
-      <c r="R59" s="1">
+      <c r="S59" s="1">
         <v>7.15</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4018,20 +4201,23 @@
       <c r="L60">
         <v>4</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
+        <v>18</v>
+      </c>
+      <c r="N60" s="1">
         <v>25.82</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <v>6.06</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>7.65</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>12.02</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -4068,23 +4254,26 @@
       <c r="L61">
         <v>5</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61" s="1">
         <v>13.3</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <v>4.8</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <v>0.77</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="R61" s="1">
         <v>3.63</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -4121,29 +4310,32 @@
       <c r="L62">
         <v>5</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62" s="1">
         <v>29.15</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O62" s="1">
         <v>2.71</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>6</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <v>3.58</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="R62" s="1">
         <v>4.82</v>
       </c>
-      <c r="R62" s="1">
+      <c r="S62" s="1">
         <v>7.81</v>
       </c>
-      <c r="S62" s="1">
+      <c r="T62" s="1">
         <v>4.13</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -4180,29 +4372,32 @@
       <c r="L63">
         <v>5</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
+        <v>21</v>
+      </c>
+      <c r="N63" s="1">
         <v>28.65</v>
       </c>
-      <c r="N63" s="1">
+      <c r="O63" s="1">
         <v>5.6</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>1.08</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>1.57</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="R63" s="1">
         <v>6.55</v>
       </c>
-      <c r="R63" s="1">
+      <c r="S63" s="1">
         <v>6.18</v>
       </c>
-      <c r="S63" s="1">
+      <c r="T63" s="1">
         <v>6.75</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4239,23 +4434,26 @@
       <c r="L64">
         <v>5</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
+        <v>22</v>
+      </c>
+      <c r="N64" s="1">
         <v>24.46</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>3.15</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>7.59</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <v>6.75</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="R64" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4292,23 +4490,26 @@
       <c r="L65">
         <v>5</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
+        <v>23</v>
+      </c>
+      <c r="N65" s="1">
         <v>26.82</v>
       </c>
-      <c r="N65" s="1">
+      <c r="O65" s="1">
         <v>7.14</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>7.57</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <v>6.99</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="R65" s="1">
         <v>5.12</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4345,29 +4546,32 @@
       <c r="L66">
         <v>6</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
+        <v>24</v>
+      </c>
+      <c r="N66" s="1">
         <v>22.01</v>
       </c>
-      <c r="N66" s="1">
+      <c r="O66" s="1">
         <v>1.26</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>4.38</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q66" s="1">
         <v>4.78</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="R66" s="1">
         <v>4.91</v>
       </c>
-      <c r="R66" s="1">
+      <c r="S66" s="1">
         <v>1.77</v>
       </c>
-      <c r="S66" s="1">
+      <c r="T66" s="1">
         <v>4.79</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4404,29 +4608,32 @@
       <c r="L67">
         <v>6</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67" s="1">
         <v>25.07</v>
       </c>
-      <c r="N67" s="1">
+      <c r="O67" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="O67" s="1">
+      <c r="P67" s="1">
         <v>5.07</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <v>4.87</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="R67" s="1">
         <v>1.82</v>
       </c>
-      <c r="R67" s="1">
+      <c r="S67" s="1">
         <v>5.33</v>
       </c>
-      <c r="S67" s="1">
+      <c r="T67" s="1">
         <v>4.53</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -4463,29 +4670,32 @@
       <c r="L68">
         <v>6</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
+        <v>26</v>
+      </c>
+      <c r="N68" s="1">
         <v>25.33</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
         <v>1.93</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>6.84</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <v>1.9</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="R68" s="1">
         <v>5.84</v>
       </c>
-      <c r="R68" s="1">
+      <c r="S68" s="1">
         <v>1.96</v>
       </c>
-      <c r="S68" s="1">
+      <c r="T68" s="1">
         <v>5.87</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4522,29 +4732,32 @@
       <c r="L69">
         <v>6</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
+        <v>27</v>
+      </c>
+      <c r="N69" s="1">
         <v>27.28</v>
       </c>
-      <c r="N69" s="1">
+      <c r="O69" s="1">
         <v>2.65</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>2.83</v>
       </c>
-      <c r="P69" s="1">
+      <c r="Q69" s="1">
         <v>6.89</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="R69" s="1">
         <v>5.71</v>
       </c>
-      <c r="R69" s="1">
+      <c r="S69" s="1">
         <v>4.76</v>
       </c>
-      <c r="S69" s="1">
+      <c r="T69" s="1">
         <v>4.22</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4581,29 +4794,32 @@
       <c r="L70">
         <v>7</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
+        <v>28</v>
+      </c>
+      <c r="N70" s="1">
         <v>23</v>
       </c>
-      <c r="N70" s="1">
+      <c r="O70" s="1">
         <v>3.89</v>
       </c>
-      <c r="O70" s="1">
+      <c r="P70" s="1">
         <v>3.29</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q70" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="R70" s="1">
         <v>2.56</v>
       </c>
-      <c r="R70" s="1">
+      <c r="S70" s="1">
         <v>6.11</v>
       </c>
-      <c r="S70" s="1">
+      <c r="T70" s="1">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4640,29 +4856,32 @@
       <c r="L71">
         <v>7</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
+        <v>29</v>
+      </c>
+      <c r="N71" s="1">
         <v>19.47</v>
       </c>
-      <c r="N71" s="1">
+      <c r="O71" s="1">
         <v>3.14</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>3.13</v>
       </c>
-      <c r="P71" s="1">
+      <c r="Q71" s="1">
         <v>3.68</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="R71" s="1">
         <v>2.52</v>
       </c>
-      <c r="R71" s="1">
+      <c r="S71" s="1">
         <v>3.78</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T71" s="1">
         <v>3.14</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4699,29 +4918,32 @@
       <c r="L72">
         <v>7</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72" s="1">
         <v>22.51</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>2.4</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>5.45</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q72" s="1">
         <v>2.68</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="R72" s="1">
         <v>3.57</v>
       </c>
-      <c r="R72" s="1">
+      <c r="S72" s="1">
         <v>5.13</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <v>3.09</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4758,23 +4980,26 @@
       <c r="L73">
         <v>7</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
+        <v>31</v>
+      </c>
+      <c r="N73" s="1">
         <v>23.49</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
         <v>4.68</v>
       </c>
-      <c r="O73" s="1">
+      <c r="P73" s="1">
         <v>7.06</v>
       </c>
-      <c r="P73" s="1">
+      <c r="Q73" s="1">
         <v>7.64</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="R73" s="1">
         <v>3.8</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4811,26 +5036,29 @@
       <c r="L74">
         <v>7</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
+        <v>32</v>
+      </c>
+      <c r="N74" s="1">
         <v>23.56</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>0.69</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>6.2</v>
       </c>
-      <c r="P74" s="1">
+      <c r="Q74" s="1">
         <v>5.4</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="R74" s="1">
         <v>3.61</v>
       </c>
-      <c r="R74" s="1">
+      <c r="S74" s="1">
         <v>7.61</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4867,23 +5095,26 @@
       <c r="L75">
         <v>8</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
+        <v>33</v>
+      </c>
+      <c r="N75" s="1">
         <v>18.809999999999999</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>6.39</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>2.91</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <v>1.92</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="R75" s="1">
         <v>7.13</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4920,29 +5151,32 @@
       <c r="L76">
         <v>8</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
+        <v>34</v>
+      </c>
+      <c r="N76" s="1">
         <v>25.76</v>
       </c>
-      <c r="N76" s="1">
+      <c r="O76" s="1">
         <v>4.99</v>
       </c>
-      <c r="O76" s="1">
+      <c r="P76" s="1">
         <v>8.52</v>
       </c>
-      <c r="P76" s="1">
+      <c r="Q76" s="1">
         <v>5.32</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="R76" s="1">
         <v>0.89</v>
       </c>
-      <c r="R76" s="1">
+      <c r="S76" s="1">
         <v>5.88</v>
       </c>
-      <c r="S76" s="1">
+      <c r="T76" s="1">
         <v>0.97</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4979,26 +5213,29 @@
       <c r="L77">
         <v>8</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
+        <v>35</v>
+      </c>
+      <c r="N77" s="1">
         <v>28.05</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O77" s="1">
         <v>3.63</v>
       </c>
-      <c r="O77" s="1">
+      <c r="P77" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P77" s="1">
+      <c r="Q77" s="1">
         <v>0.24</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="R77" s="1">
         <v>7.99</v>
       </c>
-      <c r="R77" s="1">
+      <c r="S77" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -5035,26 +5272,29 @@
       <c r="L78">
         <v>8</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
+        <v>36</v>
+      </c>
+      <c r="N78" s="1">
         <v>24</v>
       </c>
-      <c r="N78" s="1">
+      <c r="O78" s="1">
         <v>5.55</v>
       </c>
-      <c r="O78" s="1">
+      <c r="P78" s="1">
         <v>11.85</v>
       </c>
-      <c r="P78" s="1">
+      <c r="Q78" s="1">
         <v>2.17</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="R78" s="1">
         <v>4.12</v>
       </c>
-      <c r="R78" s="1">
+      <c r="S78" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -5091,26 +5331,29 @@
       <c r="L79">
         <v>9</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79" s="1">
         <v>3.95</v>
       </c>
-      <c r="N79" s="1">
+      <c r="O79" s="1">
         <v>0.77</v>
       </c>
-      <c r="O79" s="1">
+      <c r="P79" s="1">
         <v>0.32</v>
       </c>
-      <c r="P79" s="1">
+      <c r="Q79" s="1">
         <v>0.75</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="R79" s="1">
         <v>0.95</v>
       </c>
-      <c r="R79" s="1">
+      <c r="S79" s="1">
         <v>1.06</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5147,26 +5390,29 @@
       <c r="L80">
         <v>9</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80">
+        <v>38</v>
+      </c>
+      <c r="N80" s="1">
         <v>13.16</v>
       </c>
-      <c r="N80" s="1">
+      <c r="O80" s="1">
         <v>3.79</v>
       </c>
-      <c r="O80" s="1">
+      <c r="P80" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P80" s="1">
+      <c r="Q80" s="1">
         <v>1.35</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="R80" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R80" s="1">
+      <c r="S80" s="1">
         <v>1.92</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -5203,23 +5449,26 @@
       <c r="L81">
         <v>9</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81">
+        <v>39</v>
+      </c>
+      <c r="N81" s="1">
         <v>18.329999999999998</v>
       </c>
-      <c r="N81" s="1">
+      <c r="O81" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="O81" s="1">
+      <c r="P81" s="1">
         <v>6.94</v>
       </c>
-      <c r="P81" s="1">
+      <c r="Q81" s="1">
         <v>5.77</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="R81" s="1">
         <v>1.53</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5256,29 +5505,32 @@
       <c r="L82">
         <v>9</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82">
+        <v>40</v>
+      </c>
+      <c r="N82" s="1">
         <v>26.15</v>
       </c>
-      <c r="N82" s="1">
+      <c r="O82" s="1">
         <v>2.77</v>
       </c>
-      <c r="O82" s="1">
+      <c r="P82" s="1">
         <v>4.6399999999999997</v>
       </c>
-      <c r="P82" s="1">
+      <c r="Q82" s="1">
         <v>4.3</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="R82" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="R82" s="1">
+      <c r="S82" s="1">
         <v>2.54</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T82" s="1">
         <v>9.24</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5315,23 +5567,26 @@
       <c r="L83">
         <v>9</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83">
+        <v>41</v>
+      </c>
+      <c r="N83" s="1">
         <v>15.21</v>
       </c>
-      <c r="N83" s="1">
+      <c r="O83" s="1">
         <v>5.18</v>
       </c>
-      <c r="O83" s="1">
+      <c r="P83" s="1">
         <v>2.4</v>
       </c>
-      <c r="P83" s="1">
+      <c r="Q83" s="1">
         <v>4.54</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="R83" s="1">
         <v>2.95</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5368,26 +5623,29 @@
       <c r="L84">
         <v>1</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
         <v>18.920000000000002</v>
       </c>
-      <c r="N84" s="1">
+      <c r="O84" s="1">
         <v>1.76</v>
       </c>
-      <c r="O84" s="1">
+      <c r="P84" s="1">
         <v>4.05</v>
       </c>
-      <c r="P84" s="1">
+      <c r="Q84" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="R84" s="1">
         <v>1.32</v>
       </c>
-      <c r="R84" s="1">
+      <c r="S84" s="1">
         <v>5.38</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5424,26 +5682,29 @@
       <c r="L85">
         <v>1</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85" s="1">
         <v>22.81</v>
       </c>
-      <c r="N85" s="1">
+      <c r="O85" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="O85" s="1">
+      <c r="P85" s="1">
         <v>5.01</v>
       </c>
-      <c r="P85" s="1">
+      <c r="Q85" s="1">
         <v>5.72</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="R85" s="1">
         <v>7.72</v>
       </c>
-      <c r="R85" s="1">
+      <c r="S85" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -5480,29 +5741,32 @@
       <c r="L86">
         <v>1</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86" s="1">
         <v>24.33</v>
       </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>0.63</v>
       </c>
-      <c r="O86" s="1">
+      <c r="P86" s="1">
         <v>3.84</v>
       </c>
-      <c r="P86" s="1">
+      <c r="Q86" s="1">
         <v>5.33</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="R86" s="1">
         <v>9.98</v>
       </c>
-      <c r="R86" s="1">
+      <c r="S86" s="1">
         <v>1.43</v>
       </c>
-      <c r="S86" s="1">
+      <c r="T86" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5539,26 +5803,29 @@
       <c r="L87">
         <v>1</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87" s="1">
         <v>18.09</v>
       </c>
-      <c r="N87" s="1">
+      <c r="O87" s="1">
         <v>4.8</v>
       </c>
-      <c r="O87" s="1">
+      <c r="P87" s="1">
         <v>1.72</v>
       </c>
-      <c r="P87" s="1">
+      <c r="Q87" s="1">
         <v>2.13</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="R87" s="1">
         <v>7.09</v>
       </c>
-      <c r="R87" s="1">
+      <c r="S87" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -5595,23 +5862,26 @@
       <c r="L88">
         <v>1</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1">
         <v>28.23</v>
       </c>
-      <c r="N88" s="1">
+      <c r="O88" s="1">
         <v>2</v>
       </c>
-      <c r="O88" s="1">
+      <c r="P88" s="1">
         <v>11.01</v>
       </c>
-      <c r="P88" s="1">
+      <c r="Q88" s="1">
         <v>6.19</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="R88" s="1">
         <v>8.15</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -5648,23 +5918,26 @@
       <c r="L89">
         <v>2</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89">
+        <v>6</v>
+      </c>
+      <c r="N89" s="1">
         <v>19.2</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>5.75</v>
       </c>
-      <c r="O89" s="1">
+      <c r="P89" s="1">
         <v>4.03</v>
       </c>
-      <c r="P89" s="1">
+      <c r="Q89" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="R89" s="1">
         <v>4.29</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -5701,26 +5974,29 @@
       <c r="L90">
         <v>2</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M90">
+        <v>7</v>
+      </c>
+      <c r="N90" s="1">
         <v>29.07</v>
       </c>
-      <c r="N90" s="1">
+      <c r="O90" s="1">
         <v>11.45</v>
       </c>
-      <c r="O90" s="1">
+      <c r="P90" s="1">
         <v>4.7300000000000004</v>
       </c>
-      <c r="P90" s="1">
+      <c r="Q90" s="1">
         <v>5.51</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="R90" s="1">
         <v>4.38</v>
       </c>
-      <c r="R90" s="1">
+      <c r="S90" s="1">
         <v>2.76</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -5757,26 +6033,29 @@
       <c r="L91">
         <v>2</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M91">
+        <v>8</v>
+      </c>
+      <c r="N91" s="1">
         <v>23.1</v>
       </c>
-      <c r="N91" s="1">
+      <c r="O91" s="1">
         <v>4.3899999999999997</v>
       </c>
-      <c r="O91" s="1">
+      <c r="P91" s="1">
         <v>3.44</v>
       </c>
-      <c r="P91" s="1">
+      <c r="Q91" s="1">
         <v>8.59</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="R91" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R91" s="1">
+      <c r="S91" s="1">
         <v>5.69</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -5813,23 +6092,26 @@
       <c r="L92">
         <v>2</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M92">
+        <v>9</v>
+      </c>
+      <c r="N92" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>7.28</v>
       </c>
-      <c r="P92" s="1">
+      <c r="Q92" s="1">
         <v>3.76</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="R92" s="1">
         <v>6.72</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -5866,38 +6148,41 @@
       <c r="L93">
         <v>2</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93">
+        <v>10</v>
+      </c>
+      <c r="N93" s="1">
         <v>20</v>
       </c>
-      <c r="N93" s="1">
+      <c r="O93" s="1">
         <v>3.24</v>
       </c>
-      <c r="O93" s="1">
+      <c r="P93" s="1">
         <v>4.1100000000000003</v>
       </c>
-      <c r="P93" s="1">
+      <c r="Q93" s="1">
         <v>1.41</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="R93" s="1">
         <v>1.85</v>
       </c>
-      <c r="R93" s="1">
+      <c r="S93" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <v>0.27</v>
       </c>
-      <c r="T93" s="1">
+      <c r="U93" s="1">
         <v>0.11</v>
       </c>
-      <c r="U93" s="1">
+      <c r="V93" s="1">
         <v>1.03</v>
       </c>
-      <c r="V93" s="1">
+      <c r="W93" s="1">
         <v>7.06</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -5934,35 +6219,38 @@
       <c r="L94">
         <v>2</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94">
+        <v>11</v>
+      </c>
+      <c r="N94" s="1">
         <v>13.89</v>
       </c>
-      <c r="N94" s="1">
+      <c r="O94" s="1">
         <v>0.17</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>3.32</v>
       </c>
-      <c r="P94" s="1">
+      <c r="Q94" s="1">
         <v>2.14</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="R94" s="1">
         <v>1.86</v>
       </c>
-      <c r="R94" s="1">
+      <c r="S94" s="1">
         <v>2.67</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <v>0.45</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="1">
         <v>1.83</v>
       </c>
-      <c r="U94" s="1">
+      <c r="V94" s="1">
         <v>1.31</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -5999,20 +6287,23 @@
       <c r="L95">
         <v>3</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95">
+        <v>12</v>
+      </c>
+      <c r="N95" s="1">
         <v>16.149999999999999</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>5.29</v>
       </c>
-      <c r="P95" s="1">
+      <c r="Q95" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -6049,26 +6340,29 @@
       <c r="L96">
         <v>3</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96">
+        <v>13</v>
+      </c>
+      <c r="N96" s="1">
         <v>30</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>0.32</v>
       </c>
-      <c r="O96" s="1">
+      <c r="P96" s="1">
         <v>7.42</v>
       </c>
-      <c r="P96" s="1">
+      <c r="Q96" s="1">
         <v>11.21</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="R96" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="R96" s="1">
+      <c r="S96" s="1">
         <v>5.93</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -6105,23 +6399,26 @@
       <c r="L97">
         <v>3</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97">
+        <v>14</v>
+      </c>
+      <c r="N97" s="1">
         <v>25.07</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>1.38</v>
       </c>
-      <c r="O97" s="1">
+      <c r="P97" s="1">
         <v>6.1</v>
       </c>
-      <c r="P97" s="1">
+      <c r="Q97" s="1">
         <v>6.85</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="R97" s="1">
         <v>10.67</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -6158,26 +6455,29 @@
       <c r="L98">
         <v>3</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98">
+        <v>15</v>
+      </c>
+      <c r="N98" s="1">
         <v>26.4</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>0.52</v>
       </c>
-      <c r="O98" s="1">
+      <c r="P98" s="1">
         <v>4.75</v>
       </c>
-      <c r="P98" s="1">
+      <c r="Q98" s="1">
         <v>9.08</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="R98" s="1">
         <v>8.09</v>
       </c>
-      <c r="R98" s="1">
+      <c r="S98" s="1">
         <v>3.87</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6214,26 +6514,29 @@
       <c r="L99">
         <v>3</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99">
+        <v>16</v>
+      </c>
+      <c r="N99" s="1">
         <v>23.43</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>1.02</v>
       </c>
-      <c r="O99" s="1">
+      <c r="P99" s="1">
         <v>5.63</v>
       </c>
-      <c r="P99" s="1">
+      <c r="Q99" s="1">
         <v>2.16</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="R99" s="1">
         <v>7.09</v>
       </c>
-      <c r="R99" s="1">
+      <c r="S99" s="1">
         <v>7.34</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -6270,20 +6573,23 @@
       <c r="L100">
         <v>4</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100">
+        <v>17</v>
+      </c>
+      <c r="N100" s="1">
         <v>25.28</v>
       </c>
-      <c r="N100" s="1">
+      <c r="O100" s="1">
         <v>5.53</v>
       </c>
-      <c r="O100" s="1">
+      <c r="P100" s="1">
         <v>8.1300000000000008</v>
       </c>
-      <c r="P100" s="1">
+      <c r="Q100" s="1">
         <v>11.1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -6320,20 +6626,23 @@
       <c r="L101">
         <v>4</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101">
+        <v>18</v>
+      </c>
+      <c r="N101" s="1">
         <v>23.35</v>
       </c>
-      <c r="N101" s="1">
+      <c r="O101" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O101" s="1">
+      <c r="P101" s="1">
         <v>11.47</v>
       </c>
-      <c r="P101" s="1">
+      <c r="Q101" s="1">
         <v>8.83</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -6370,26 +6679,29 @@
       <c r="L102">
         <v>4</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102">
+        <v>19</v>
+      </c>
+      <c r="N102" s="1">
         <v>29.01</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>10.3</v>
       </c>
-      <c r="O102" s="1">
+      <c r="P102" s="1">
         <v>5.93</v>
       </c>
-      <c r="P102" s="1">
+      <c r="Q102" s="1">
         <v>0.17</v>
       </c>
-      <c r="Q102" s="1">
+      <c r="R102" s="1">
         <v>6.75</v>
       </c>
-      <c r="R102" s="1">
+      <c r="S102" s="1">
         <v>4.96</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -6426,20 +6738,23 @@
       <c r="L103">
         <v>4</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103">
+        <v>20</v>
+      </c>
+      <c r="N103" s="1">
         <v>12.25</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>2.86</v>
       </c>
-      <c r="O103" s="1">
+      <c r="P103" s="1">
         <v>3.32</v>
       </c>
-      <c r="P103" s="1">
+      <c r="Q103" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6476,29 +6791,32 @@
       <c r="L104">
         <v>4</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104">
+        <v>21</v>
+      </c>
+      <c r="N104" s="1">
         <v>18.010000000000002</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>1.98</v>
       </c>
-      <c r="P104" s="1">
+      <c r="Q104" s="1">
         <v>0.9</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="R104" s="1">
         <v>4.17</v>
       </c>
-      <c r="R104" s="1">
+      <c r="S104" s="1">
         <v>5.98</v>
       </c>
-      <c r="S104" s="1">
+      <c r="T104" s="1">
         <v>3.92</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6535,35 +6853,38 @@
       <c r="L105">
         <v>4</v>
       </c>
-      <c r="M105" s="1">
+      <c r="M105">
+        <v>22</v>
+      </c>
+      <c r="N105" s="1">
         <v>17.920000000000002</v>
       </c>
-      <c r="N105" s="1">
+      <c r="O105" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="O105" s="1">
+      <c r="P105" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P105" s="1">
+      <c r="Q105" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="R105" s="1">
         <v>2.12</v>
       </c>
-      <c r="R105" s="1">
+      <c r="S105" s="1">
         <v>3.72</v>
       </c>
-      <c r="S105" s="1">
+      <c r="T105" s="1">
         <v>3.21</v>
       </c>
-      <c r="T105" s="1">
+      <c r="U105" s="1">
         <v>0.67</v>
       </c>
-      <c r="U105" s="1">
+      <c r="V105" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6600,26 +6921,29 @@
       <c r="L106">
         <v>5</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M106">
+        <v>23</v>
+      </c>
+      <c r="N106" s="1">
         <v>14.45</v>
       </c>
-      <c r="N106" s="1">
+      <c r="O106" s="1">
         <v>0.19</v>
       </c>
-      <c r="O106" s="1">
+      <c r="P106" s="1">
         <v>5.99</v>
       </c>
-      <c r="P106" s="1">
+      <c r="Q106" s="1">
         <v>1.06</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="R106" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R106" s="1">
+      <c r="S106" s="1">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6656,20 +6980,23 @@
       <c r="L107">
         <v>5</v>
       </c>
-      <c r="M107" s="1">
+      <c r="M107">
+        <v>24</v>
+      </c>
+      <c r="N107" s="1">
         <v>12.53</v>
       </c>
-      <c r="N107" s="1">
+      <c r="O107" s="1">
         <v>6</v>
       </c>
-      <c r="O107" s="1">
+      <c r="P107" s="1">
         <v>0.88</v>
       </c>
-      <c r="P107" s="1">
+      <c r="Q107" s="1">
         <v>5.55</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6706,23 +7033,26 @@
       <c r="L108">
         <v>5</v>
       </c>
-      <c r="M108" s="1">
+      <c r="M108">
+        <v>25</v>
+      </c>
+      <c r="N108" s="1">
         <v>17.78</v>
       </c>
-      <c r="N108" s="1">
+      <c r="O108" s="1">
         <v>2.77</v>
       </c>
-      <c r="O108" s="1">
+      <c r="P108" s="1">
         <v>3.58</v>
       </c>
-      <c r="P108" s="1">
+      <c r="Q108" s="1">
         <v>7.32</v>
       </c>
-      <c r="Q108" s="1">
+      <c r="R108" s="1">
         <v>3.77</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6759,38 +7089,41 @@
       <c r="L109">
         <v>5</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M109">
+        <v>26</v>
+      </c>
+      <c r="N109" s="1">
         <v>19.57</v>
       </c>
-      <c r="N109" s="1">
+      <c r="O109" s="1">
         <v>1.62</v>
       </c>
-      <c r="O109" s="1">
+      <c r="P109" s="1">
         <v>0.94</v>
       </c>
-      <c r="P109" s="1">
+      <c r="Q109" s="1">
         <v>0.88</v>
       </c>
-      <c r="Q109" s="1">
+      <c r="R109" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="R109" s="1">
+      <c r="S109" s="1">
         <v>0.84</v>
       </c>
-      <c r="S109" s="1">
+      <c r="T109" s="1">
         <v>3.75</v>
       </c>
-      <c r="T109" s="1">
+      <c r="U109" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U109" s="1">
+      <c r="V109" s="1">
         <v>3.54</v>
       </c>
-      <c r="V109" s="1">
+      <c r="W109" s="1">
         <v>5.85</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6827,29 +7160,32 @@
       <c r="L110">
         <v>5</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110">
+        <v>27</v>
+      </c>
+      <c r="N110" s="1">
         <v>24.93</v>
       </c>
-      <c r="N110" s="1">
+      <c r="O110" s="1">
         <v>4.63</v>
       </c>
-      <c r="O110" s="1">
+      <c r="P110" s="1">
         <v>4.13</v>
       </c>
-      <c r="P110" s="1">
+      <c r="Q110" s="1">
         <v>7.66</v>
       </c>
-      <c r="Q110" s="1">
+      <c r="R110" s="1">
         <v>3.17</v>
       </c>
-      <c r="R110" s="1">
+      <c r="S110" s="1">
         <v>3.35</v>
       </c>
-      <c r="S110" s="1">
+      <c r="T110" s="1">
         <v>1.76</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -6886,29 +7222,32 @@
       <c r="L111">
         <v>6</v>
       </c>
-      <c r="M111" s="1">
+      <c r="M111">
+        <v>28</v>
+      </c>
+      <c r="N111" s="1">
         <v>33.380000000000003</v>
       </c>
-      <c r="N111" s="1">
+      <c r="O111" s="1">
         <v>5.78</v>
       </c>
-      <c r="O111" s="1">
+      <c r="P111" s="1">
         <v>1.8</v>
       </c>
-      <c r="P111" s="1">
+      <c r="Q111" s="1">
         <v>9.94</v>
       </c>
-      <c r="Q111" s="1">
+      <c r="R111" s="1">
         <v>11.1</v>
       </c>
-      <c r="R111" s="1">
+      <c r="S111" s="1">
         <v>0.15</v>
       </c>
-      <c r="S111" s="1">
+      <c r="T111" s="1">
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -6945,20 +7284,23 @@
       <c r="L112">
         <v>6</v>
       </c>
-      <c r="M112" s="1">
+      <c r="M112">
+        <v>29</v>
+      </c>
+      <c r="N112" s="1">
         <v>15.28</v>
       </c>
-      <c r="N112" s="1">
+      <c r="O112" s="1">
         <v>1.72</v>
       </c>
-      <c r="O112" s="1">
+      <c r="P112" s="1">
         <v>3.36</v>
       </c>
-      <c r="P112" s="1">
+      <c r="Q112" s="1">
         <v>9.93</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -6995,20 +7337,23 @@
       <c r="L113">
         <v>6</v>
       </c>
-      <c r="M113" s="1">
+      <c r="M113">
+        <v>30</v>
+      </c>
+      <c r="N113" s="1">
         <v>15.32</v>
       </c>
-      <c r="N113" s="1">
+      <c r="O113" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="O113" s="1">
+      <c r="P113" s="1">
         <v>4.99</v>
       </c>
-      <c r="P113" s="1">
+      <c r="Q113" s="1">
         <v>7.99</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -7045,23 +7390,26 @@
       <c r="L114">
         <v>6</v>
       </c>
-      <c r="M114" s="1">
+      <c r="M114">
+        <v>31</v>
+      </c>
+      <c r="N114" s="1">
         <v>19.88</v>
       </c>
-      <c r="N114" s="1">
+      <c r="O114" s="1">
         <v>1.51</v>
       </c>
-      <c r="O114" s="1">
+      <c r="P114" s="1">
         <v>8.24</v>
       </c>
-      <c r="P114" s="1">
+      <c r="Q114" s="1">
         <v>6.2</v>
       </c>
-      <c r="Q114" s="1">
+      <c r="R114" s="1">
         <v>3.92</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -7098,26 +7446,29 @@
       <c r="L115">
         <v>6</v>
       </c>
-      <c r="M115" s="1">
+      <c r="M115">
+        <v>32</v>
+      </c>
+      <c r="N115" s="1">
         <v>26.53</v>
       </c>
-      <c r="N115" s="1">
+      <c r="O115" s="1">
         <v>4.54</v>
       </c>
-      <c r="O115" s="1">
+      <c r="P115" s="1">
         <v>8.57</v>
       </c>
-      <c r="P115" s="1">
+      <c r="Q115" s="1">
         <v>6.22</v>
       </c>
-      <c r="Q115" s="1">
+      <c r="R115" s="1">
         <v>6.45</v>
       </c>
-      <c r="R115" s="1">
+      <c r="S115" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -7154,26 +7505,29 @@
       <c r="L116">
         <v>6</v>
       </c>
-      <c r="M116" s="1">
+      <c r="M116">
+        <v>33</v>
+      </c>
+      <c r="N116" s="1">
         <v>23.01</v>
       </c>
-      <c r="N116" s="1">
+      <c r="O116" s="1">
         <v>4.83</v>
       </c>
-      <c r="O116" s="1">
+      <c r="P116" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="P116" s="1">
+      <c r="Q116" s="1">
         <v>6.01</v>
       </c>
-      <c r="Q116" s="1">
+      <c r="R116" s="1">
         <v>6.75</v>
       </c>
-      <c r="R116" s="1">
+      <c r="S116" s="1">
         <v>0.18</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -7210,20 +7564,23 @@
       <c r="L117">
         <v>7</v>
       </c>
-      <c r="M117" s="1">
+      <c r="M117">
+        <v>34</v>
+      </c>
+      <c r="N117" s="1">
         <v>3.22</v>
       </c>
-      <c r="N117" s="1">
+      <c r="O117" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O117" s="1">
+      <c r="P117" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P117" s="1">
+      <c r="Q117" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -7260,26 +7617,29 @@
       <c r="L118">
         <v>7</v>
       </c>
-      <c r="M118" s="1">
+      <c r="M118">
+        <v>35</v>
+      </c>
+      <c r="N118" s="1">
         <v>18.920000000000002</v>
       </c>
-      <c r="N118" s="1">
+      <c r="O118" s="1">
         <v>0.86</v>
       </c>
-      <c r="O118" s="1">
+      <c r="P118" s="1">
         <v>0.31</v>
       </c>
-      <c r="P118" s="1">
+      <c r="Q118" s="1">
         <v>4.12</v>
       </c>
-      <c r="Q118" s="1">
+      <c r="R118" s="1">
         <v>4.71</v>
       </c>
-      <c r="R118" s="1">
+      <c r="S118" s="1">
         <v>8.6</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -7316,23 +7676,26 @@
       <c r="L119">
         <v>7</v>
       </c>
-      <c r="M119" s="1">
+      <c r="M119">
+        <v>36</v>
+      </c>
+      <c r="N119" s="1">
         <v>18.010000000000002</v>
       </c>
-      <c r="N119" s="1">
+      <c r="O119" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O119" s="1">
+      <c r="P119" s="1">
         <v>6.48</v>
       </c>
-      <c r="P119" s="1">
+      <c r="Q119" s="1">
         <v>5.78</v>
       </c>
-      <c r="Q119" s="1">
+      <c r="R119" s="1">
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -7369,26 +7732,29 @@
       <c r="L120">
         <v>7</v>
       </c>
-      <c r="M120" s="1">
+      <c r="M120">
+        <v>37</v>
+      </c>
+      <c r="N120" s="1">
         <v>15.47</v>
       </c>
-      <c r="N120" s="1">
+      <c r="O120" s="1">
         <v>3.3</v>
       </c>
-      <c r="O120" s="1">
+      <c r="P120" s="1">
         <v>0.71</v>
       </c>
-      <c r="P120" s="1">
+      <c r="Q120" s="1">
         <v>0.42</v>
       </c>
-      <c r="Q120" s="1">
+      <c r="R120" s="1">
         <v>8.67</v>
       </c>
-      <c r="R120" s="1">
+      <c r="S120" s="1">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -7425,20 +7791,23 @@
       <c r="L121">
         <v>7</v>
       </c>
-      <c r="M121" s="1">
+      <c r="M121">
+        <v>38</v>
+      </c>
+      <c r="N121" s="1">
         <v>12.3</v>
       </c>
-      <c r="N121" s="1">
+      <c r="O121" s="1">
         <v>0.43</v>
       </c>
-      <c r="O121" s="1">
+      <c r="P121" s="1">
         <v>7.43</v>
       </c>
-      <c r="P121" s="1">
+      <c r="Q121" s="1">
         <v>4.01</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -7475,23 +7844,26 @@
       <c r="L122">
         <v>8</v>
       </c>
-      <c r="M122" s="1">
+      <c r="M122">
+        <v>39</v>
+      </c>
+      <c r="N122" s="1">
         <v>25.93</v>
       </c>
-      <c r="N122" s="1">
+      <c r="O122" s="1">
         <v>5.4</v>
       </c>
-      <c r="O122" s="1">
+      <c r="P122" s="1">
         <v>7.94</v>
       </c>
-      <c r="P122" s="1">
+      <c r="Q122" s="1">
         <v>3.34</v>
       </c>
-      <c r="Q122" s="1">
+      <c r="R122" s="1">
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -7528,23 +7900,26 @@
       <c r="L123">
         <v>8</v>
       </c>
-      <c r="M123" s="1">
+      <c r="M123">
+        <v>40</v>
+      </c>
+      <c r="N123" s="1">
         <v>17.66</v>
       </c>
-      <c r="N123" s="1">
+      <c r="O123" s="1">
         <v>0.27</v>
       </c>
-      <c r="O123" s="1">
+      <c r="P123" s="1">
         <v>4.99</v>
       </c>
-      <c r="P123" s="1">
+      <c r="Q123" s="1">
         <v>3.46</v>
       </c>
-      <c r="Q123" s="1">
+      <c r="R123" s="1">
         <v>8.35</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -7581,23 +7956,26 @@
       <c r="L124">
         <v>8</v>
       </c>
-      <c r="M124" s="1">
+      <c r="M124">
+        <v>41</v>
+      </c>
+      <c r="N124" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="N124" s="1">
+      <c r="O124" s="1">
         <v>0.5</v>
       </c>
-      <c r="O124" s="1">
+      <c r="P124" s="1">
         <v>8.42</v>
       </c>
-      <c r="P124" s="1">
+      <c r="Q124" s="1">
         <v>3.79</v>
       </c>
-      <c r="Q124" s="1">
+      <c r="R124" s="1">
         <v>6.93</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -7634,26 +8012,29 @@
       <c r="L125">
         <v>8</v>
       </c>
-      <c r="M125" s="1">
+      <c r="M125">
+        <v>42</v>
+      </c>
+      <c r="N125" s="1">
         <v>29.53</v>
       </c>
-      <c r="N125" s="1">
+      <c r="O125" s="1">
         <v>8.26</v>
       </c>
-      <c r="O125" s="1">
+      <c r="P125" s="1">
         <v>4.6399999999999997</v>
       </c>
-      <c r="P125" s="1">
+      <c r="Q125" s="1">
         <v>6.76</v>
       </c>
-      <c r="Q125" s="1">
+      <c r="R125" s="1">
         <v>0.95</v>
       </c>
-      <c r="R125" s="1">
+      <c r="S125" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -7690,29 +8071,32 @@
       <c r="L126">
         <v>8</v>
       </c>
-      <c r="M126" s="1">
+      <c r="M126">
+        <v>43</v>
+      </c>
+      <c r="N126" s="1">
         <v>14.72</v>
       </c>
-      <c r="N126" s="1">
+      <c r="O126" s="1">
         <v>2.54</v>
       </c>
-      <c r="O126" s="1">
+      <c r="P126" s="1">
         <v>0.98</v>
       </c>
-      <c r="P126" s="1">
+      <c r="Q126" s="1">
         <v>0.45</v>
       </c>
-      <c r="Q126" s="1">
+      <c r="R126" s="1">
         <v>0.48</v>
       </c>
-      <c r="R126" s="1">
+      <c r="S126" s="1">
         <v>1.62</v>
       </c>
-      <c r="S126" s="1">
+      <c r="T126" s="1">
         <v>8.26</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -7749,26 +8133,29 @@
       <c r="L127">
         <v>8</v>
       </c>
-      <c r="M127" s="1">
+      <c r="M127">
+        <v>44</v>
+      </c>
+      <c r="N127" s="1">
         <v>17.850000000000001</v>
       </c>
-      <c r="N127" s="1">
+      <c r="O127" s="1">
         <v>2.77</v>
       </c>
-      <c r="O127" s="1">
+      <c r="P127" s="1">
         <v>3.92</v>
       </c>
-      <c r="P127" s="1">
+      <c r="Q127" s="1">
         <v>3.48</v>
       </c>
-      <c r="Q127" s="1">
+      <c r="R127" s="1">
         <v>0.25</v>
       </c>
-      <c r="R127" s="1">
+      <c r="S127" s="1">
         <v>7.64</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -7805,29 +8192,32 @@
       <c r="L128">
         <v>9</v>
       </c>
-      <c r="M128" s="1">
+      <c r="M128">
+        <v>45</v>
+      </c>
+      <c r="N128" s="1">
         <v>20.149999999999999</v>
       </c>
-      <c r="N128" s="1">
+      <c r="O128" s="1">
         <v>0.78</v>
       </c>
-      <c r="O128" s="1">
+      <c r="P128" s="1">
         <v>0.89</v>
       </c>
-      <c r="P128" s="1">
+      <c r="Q128" s="1">
         <v>2.46</v>
       </c>
-      <c r="Q128" s="1">
+      <c r="R128" s="1">
         <v>5.46</v>
       </c>
-      <c r="R128" s="1">
+      <c r="S128" s="1">
         <v>6.01</v>
       </c>
-      <c r="S128" s="1">
+      <c r="T128" s="1">
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -7864,29 +8254,32 @@
       <c r="L129">
         <v>9</v>
       </c>
-      <c r="M129" s="1">
+      <c r="M129">
+        <v>46</v>
+      </c>
+      <c r="N129" s="1">
         <v>25.05</v>
       </c>
-      <c r="N129" s="1">
+      <c r="O129" s="1">
         <v>1.37</v>
       </c>
-      <c r="O129" s="1">
+      <c r="P129" s="1">
         <v>2.23</v>
       </c>
-      <c r="P129" s="1">
+      <c r="Q129" s="1">
         <v>7.92</v>
       </c>
-      <c r="Q129" s="1">
+      <c r="R129" s="1">
         <v>2.19</v>
       </c>
-      <c r="R129" s="1">
+      <c r="S129" s="1">
         <v>7.72</v>
       </c>
-      <c r="S129" s="1">
+      <c r="T129" s="1">
         <v>3.71</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -7923,38 +8316,41 @@
       <c r="L130">
         <v>9</v>
       </c>
-      <c r="M130" s="1">
+      <c r="M130">
+        <v>47</v>
+      </c>
+      <c r="N130" s="1">
         <v>20.88</v>
       </c>
-      <c r="N130" s="1">
+      <c r="O130" s="1">
         <v>0.19</v>
       </c>
-      <c r="O130" s="1">
+      <c r="P130" s="1">
         <v>1.4</v>
       </c>
-      <c r="P130" s="1">
+      <c r="Q130" s="1">
         <v>1.44</v>
       </c>
-      <c r="Q130" s="1">
+      <c r="R130" s="1">
         <v>1.47</v>
       </c>
-      <c r="R130" s="1">
+      <c r="S130" s="1">
         <v>0.2</v>
       </c>
-      <c r="S130" s="1">
+      <c r="T130" s="1">
         <v>0.11</v>
       </c>
-      <c r="T130" s="1">
+      <c r="U130" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="U130" s="1">
+      <c r="V130" s="1">
         <v>4.32</v>
       </c>
-      <c r="V130" s="1">
+      <c r="W130" s="1">
         <v>7.37</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -7991,20 +8387,23 @@
       <c r="L131">
         <v>9</v>
       </c>
-      <c r="M131" s="1">
+      <c r="M131">
+        <v>48</v>
+      </c>
+      <c r="N131" s="1">
         <v>16.89</v>
       </c>
-      <c r="N131" s="1">
+      <c r="O131" s="1">
         <v>2.69</v>
       </c>
-      <c r="O131" s="1">
+      <c r="P131" s="1">
         <v>10.29</v>
       </c>
-      <c r="P131" s="1">
+      <c r="Q131" s="1">
         <v>3.82</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8041,26 +8440,29 @@
       <c r="L132">
         <v>9</v>
       </c>
-      <c r="M132" s="1">
+      <c r="M132">
+        <v>49</v>
+      </c>
+      <c r="N132" s="1">
         <v>16.989999999999998</v>
       </c>
-      <c r="N132" s="1">
+      <c r="O132" s="1">
         <v>2.06</v>
       </c>
-      <c r="O132" s="1">
+      <c r="P132" s="1">
         <v>4.82</v>
       </c>
-      <c r="P132" s="1">
+      <c r="Q132" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Q132" s="1">
+      <c r="R132" s="1">
         <v>0.32</v>
       </c>
-      <c r="R132" s="1">
+      <c r="S132" s="1">
         <v>5.6</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -8097,32 +8499,35 @@
       <c r="L133">
         <v>10</v>
       </c>
-      <c r="M133" s="1">
+      <c r="M133">
+        <v>50</v>
+      </c>
+      <c r="N133" s="1">
         <v>23.44</v>
       </c>
-      <c r="N133" s="1">
+      <c r="O133" s="1">
         <v>1.58</v>
       </c>
-      <c r="O133" s="1">
+      <c r="P133" s="1">
         <v>0.42</v>
       </c>
-      <c r="P133" s="1">
+      <c r="Q133" s="1">
         <v>7.84</v>
       </c>
-      <c r="Q133" s="1">
+      <c r="R133" s="1">
         <v>1.72</v>
       </c>
-      <c r="R133" s="1">
+      <c r="S133" s="1">
         <v>3.73</v>
       </c>
-      <c r="S133" s="1">
+      <c r="T133" s="1">
         <v>3.36</v>
       </c>
-      <c r="T133" s="1">
+      <c r="U133" s="1">
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8159,20 +8564,23 @@
       <c r="L134">
         <v>10</v>
       </c>
-      <c r="M134" s="1">
+      <c r="M134">
+        <v>51</v>
+      </c>
+      <c r="N134" s="1">
         <v>13.16</v>
       </c>
-      <c r="N134" s="1">
+      <c r="O134" s="1">
         <v>5</v>
       </c>
-      <c r="O134" s="1">
+      <c r="P134" s="1">
         <v>3.52</v>
       </c>
-      <c r="P134" s="1">
+      <c r="Q134" s="1">
         <v>4.42</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -8209,26 +8617,29 @@
       <c r="L135">
         <v>10</v>
       </c>
-      <c r="M135" s="1">
+      <c r="M135">
+        <v>52</v>
+      </c>
+      <c r="N135" s="1">
         <v>22.91</v>
       </c>
-      <c r="N135" s="1">
+      <c r="O135" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O135" s="1">
+      <c r="P135" s="1">
         <v>2.97</v>
       </c>
-      <c r="P135" s="1">
+      <c r="Q135" s="1">
         <v>0.76</v>
       </c>
-      <c r="Q135" s="1">
+      <c r="R135" s="1">
         <v>9.4600000000000009</v>
       </c>
-      <c r="R135" s="1">
+      <c r="S135" s="1">
         <v>5.55</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -8265,32 +8676,35 @@
       <c r="L136">
         <v>10</v>
       </c>
-      <c r="M136" s="1">
+      <c r="M136">
+        <v>53</v>
+      </c>
+      <c r="N136" s="1">
         <v>25.32</v>
       </c>
-      <c r="N136" s="1">
+      <c r="O136" s="1">
         <v>0.81</v>
       </c>
-      <c r="O136" s="1">
+      <c r="P136" s="1">
         <v>2.21</v>
       </c>
-      <c r="P136" s="1">
+      <c r="Q136" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Q136" s="1">
+      <c r="R136" s="1">
         <v>0.5</v>
       </c>
-      <c r="R136" s="1">
+      <c r="S136" s="1">
         <v>5.32</v>
       </c>
-      <c r="S136" s="1">
+      <c r="T136" s="1">
         <v>2.06</v>
       </c>
-      <c r="T136" s="1">
+      <c r="U136" s="1">
         <v>8.17</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -8327,29 +8741,32 @@
       <c r="L137">
         <v>10</v>
       </c>
-      <c r="M137" s="1">
+      <c r="M137">
+        <v>54</v>
+      </c>
+      <c r="N137" s="1">
         <v>21.71</v>
       </c>
-      <c r="N137" s="1">
+      <c r="O137" s="1">
         <v>4.7300000000000004</v>
       </c>
-      <c r="O137" s="1">
+      <c r="P137" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P137" s="1">
+      <c r="Q137" s="1">
         <v>0.34</v>
       </c>
-      <c r="Q137" s="1">
+      <c r="R137" s="1">
         <v>4.62</v>
       </c>
-      <c r="R137" s="1">
+      <c r="S137" s="1">
         <v>3.19</v>
       </c>
-      <c r="S137" s="1">
+      <c r="T137" s="1">
         <v>7.91</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -8386,29 +8803,32 @@
       <c r="L138">
         <v>10</v>
       </c>
-      <c r="M138" s="1">
+      <c r="M138">
+        <v>55</v>
+      </c>
+      <c r="N138" s="1">
         <v>29.89</v>
       </c>
-      <c r="N138" s="1">
+      <c r="O138" s="1">
         <v>7.93</v>
       </c>
-      <c r="O138" s="1">
+      <c r="P138" s="1">
         <v>7.3</v>
       </c>
-      <c r="P138" s="1">
+      <c r="Q138" s="1">
         <v>1.33</v>
       </c>
-      <c r="Q138" s="1">
+      <c r="R138" s="1">
         <v>2.09</v>
       </c>
-      <c r="R138" s="1">
+      <c r="S138" s="1">
         <v>0.94</v>
       </c>
-      <c r="S138" s="1">
+      <c r="T138" s="1">
         <v>10.02</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -8445,26 +8865,29 @@
       <c r="L139">
         <v>11</v>
       </c>
-      <c r="M139" s="1">
+      <c r="M139">
+        <v>56</v>
+      </c>
+      <c r="N139" s="1">
         <v>23.23</v>
       </c>
-      <c r="N139" s="1">
+      <c r="O139" s="1">
         <v>2.33</v>
       </c>
-      <c r="O139" s="1">
+      <c r="P139" s="1">
         <v>5.23</v>
       </c>
-      <c r="P139" s="1">
+      <c r="Q139" s="1">
         <v>2.56</v>
       </c>
-      <c r="Q139" s="1">
+      <c r="R139" s="1">
         <v>12.16</v>
       </c>
-      <c r="R139" s="1">
+      <c r="S139" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -8501,26 +8924,29 @@
       <c r="L140">
         <v>11</v>
       </c>
-      <c r="M140" s="1">
+      <c r="M140">
+        <v>57</v>
+      </c>
+      <c r="N140" s="1">
         <v>21.77</v>
       </c>
-      <c r="N140" s="1">
+      <c r="O140" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O140" s="1">
+      <c r="P140" s="1">
         <v>0.94</v>
       </c>
-      <c r="P140" s="1">
+      <c r="Q140" s="1">
         <v>5.6</v>
       </c>
-      <c r="Q140" s="1">
+      <c r="R140" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R140" s="1">
+      <c r="S140" s="1">
         <v>12.46</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -8557,23 +8983,26 @@
       <c r="L141">
         <v>11</v>
       </c>
-      <c r="M141" s="1">
+      <c r="M141">
+        <v>58</v>
+      </c>
+      <c r="N141" s="1">
         <v>21.47</v>
       </c>
-      <c r="N141" s="1">
+      <c r="O141" s="1">
         <v>1.56</v>
       </c>
-      <c r="O141" s="1">
+      <c r="P141" s="1">
         <v>6.59</v>
       </c>
-      <c r="P141" s="1">
+      <c r="Q141" s="1">
         <v>4.32</v>
       </c>
-      <c r="Q141" s="1">
+      <c r="R141" s="1">
         <v>8.75</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -8610,26 +9039,29 @@
       <c r="L142">
         <v>11</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M142">
+        <v>59</v>
+      </c>
+      <c r="N142" s="1">
         <v>21.54</v>
       </c>
-      <c r="N142" s="1">
+      <c r="O142" s="1">
         <v>1.31</v>
       </c>
-      <c r="O142" s="1">
+      <c r="P142" s="1">
         <v>3.46</v>
       </c>
-      <c r="P142" s="1">
+      <c r="Q142" s="1">
         <v>2.95</v>
       </c>
-      <c r="Q142" s="1">
+      <c r="R142" s="1">
         <v>7.33</v>
       </c>
-      <c r="R142" s="1">
+      <c r="S142" s="1">
         <v>6.36</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -8666,29 +9098,32 @@
       <c r="L143">
         <v>11</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143">
+        <v>60</v>
+      </c>
+      <c r="N143" s="1">
         <v>22.06</v>
       </c>
-      <c r="N143" s="1">
+      <c r="O143" s="1">
         <v>0.85</v>
       </c>
-      <c r="O143" s="1">
+      <c r="P143" s="1">
         <v>3.34</v>
       </c>
-      <c r="P143" s="1">
+      <c r="Q143" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Q143" s="1">
+      <c r="R143" s="1">
         <v>2.93</v>
       </c>
-      <c r="R143" s="1">
+      <c r="S143" s="1">
         <v>7.3</v>
       </c>
-      <c r="S143" s="1">
+      <c r="T143" s="1">
         <v>5.18</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -8725,29 +9160,32 @@
       <c r="L144">
         <v>1</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
         <v>13</v>
       </c>
-      <c r="N144" s="1">
+      <c r="O144" s="1">
         <v>1.72</v>
       </c>
-      <c r="O144" s="1">
+      <c r="P144" s="1">
         <v>1.06</v>
       </c>
-      <c r="P144" s="1">
+      <c r="Q144" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Q144" s="1">
+      <c r="R144" s="1">
         <v>3.21</v>
       </c>
-      <c r="R144" s="1">
+      <c r="S144" s="1">
         <v>2.87</v>
       </c>
-      <c r="S144" s="1">
+      <c r="T144" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8784,29 +9222,32 @@
       <c r="L145">
         <v>1</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145" s="1">
         <v>11.89</v>
       </c>
-      <c r="N145" s="1">
+      <c r="O145" s="1">
         <v>0.87</v>
       </c>
-      <c r="O145" s="1">
+      <c r="P145" s="1">
         <v>3.49</v>
       </c>
-      <c r="P145" s="1">
+      <c r="Q145" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q145" s="1">
+      <c r="R145" s="1">
         <v>1.34</v>
       </c>
-      <c r="R145" s="1">
+      <c r="S145" s="1">
         <v>1.24</v>
       </c>
-      <c r="S145" s="1">
+      <c r="T145" s="1">
         <v>2.92</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -8843,29 +9284,32 @@
       <c r="L146">
         <v>1</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146" s="1">
         <v>13</v>
       </c>
-      <c r="N146" s="1">
+      <c r="O146" s="1">
         <v>1.22</v>
       </c>
-      <c r="O146" s="1">
+      <c r="P146" s="1">
         <v>3.01</v>
       </c>
-      <c r="P146" s="1">
+      <c r="Q146" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q146" s="1">
+      <c r="R146" s="1">
         <v>3.04</v>
       </c>
-      <c r="R146" s="1">
+      <c r="S146" s="1">
         <v>1.79</v>
       </c>
-      <c r="S146" s="1">
+      <c r="T146" s="1">
         <v>3.34</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -8902,29 +9346,32 @@
       <c r="L147">
         <v>1</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147" s="1">
         <v>13.57</v>
       </c>
-      <c r="N147" s="1">
+      <c r="O147" s="1">
         <v>0.48</v>
       </c>
-      <c r="O147" s="1">
+      <c r="P147" s="1">
         <v>1.39</v>
       </c>
-      <c r="P147" s="1">
+      <c r="Q147" s="1">
         <v>1.3</v>
       </c>
-      <c r="Q147" s="1">
+      <c r="R147" s="1">
         <v>3.4</v>
       </c>
-      <c r="R147" s="1">
+      <c r="S147" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="S147" s="1">
+      <c r="T147" s="1">
         <v>4.54</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -8961,29 +9408,32 @@
       <c r="L148">
         <v>1</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148" s="1">
         <v>34.380000000000003</v>
       </c>
-      <c r="N148" s="1">
+      <c r="O148" s="1">
         <v>11.26</v>
       </c>
-      <c r="O148" s="1">
+      <c r="P148" s="1">
         <v>15.34</v>
       </c>
-      <c r="P148" s="1">
+      <c r="Q148" s="1">
         <v>3.36</v>
       </c>
-      <c r="Q148" s="1">
+      <c r="R148" s="1">
         <v>1.52</v>
       </c>
-      <c r="R148" s="1">
+      <c r="S148" s="1">
         <v>0.69</v>
       </c>
-      <c r="S148" s="1">
+      <c r="T148" s="1">
         <v>0.87</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -9020,29 +9470,32 @@
       <c r="L149">
         <v>2</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M149">
+        <v>6</v>
+      </c>
+      <c r="N149" s="1">
         <v>8.77</v>
       </c>
-      <c r="N149" s="1">
+      <c r="O149" s="1">
         <v>1.37</v>
       </c>
-      <c r="O149" s="1">
+      <c r="P149" s="1">
         <v>2.11</v>
       </c>
-      <c r="P149" s="1">
+      <c r="Q149" s="1">
         <v>1.22</v>
       </c>
-      <c r="Q149" s="1">
+      <c r="R149" s="1">
         <v>2.36</v>
       </c>
-      <c r="R149" s="1">
+      <c r="S149" s="1">
         <v>1.39</v>
       </c>
-      <c r="S149" s="1">
+      <c r="T149" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -9079,29 +9532,32 @@
       <c r="L150">
         <v>2</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M150">
+        <v>7</v>
+      </c>
+      <c r="N150" s="1">
         <v>13.42</v>
       </c>
-      <c r="N150" s="1">
+      <c r="O150" s="1">
         <v>2.44</v>
       </c>
-      <c r="O150" s="1">
+      <c r="P150" s="1">
         <v>2.11</v>
       </c>
-      <c r="P150" s="1">
+      <c r="Q150" s="1">
         <v>2.25</v>
       </c>
-      <c r="Q150" s="1">
+      <c r="R150" s="1">
         <v>2.16</v>
       </c>
-      <c r="R150" s="1">
+      <c r="S150" s="1">
         <v>2.31</v>
       </c>
-      <c r="S150" s="1">
+      <c r="T150" s="1">
         <v>2.14</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -9138,26 +9594,29 @@
       <c r="L151">
         <v>2</v>
       </c>
-      <c r="M151" s="1">
+      <c r="M151">
+        <v>8</v>
+      </c>
+      <c r="N151" s="1">
         <v>14.72</v>
       </c>
-      <c r="N151" s="1">
+      <c r="O151" s="1">
         <v>0.26</v>
       </c>
-      <c r="O151" s="1">
+      <c r="P151" s="1">
         <v>4.51</v>
       </c>
-      <c r="P151" s="1">
+      <c r="Q151" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q151" s="1">
+      <c r="R151" s="1">
         <v>3.5</v>
       </c>
-      <c r="R151" s="1">
+      <c r="S151" s="1">
         <v>5.08</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -9194,29 +9653,32 @@
       <c r="L152">
         <v>2</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M152">
+        <v>9</v>
+      </c>
+      <c r="N152" s="1">
         <v>23.85</v>
       </c>
-      <c r="N152" s="1">
+      <c r="O152" s="1">
         <v>2.02</v>
       </c>
-      <c r="O152" s="1">
+      <c r="P152" s="1">
         <v>1.94</v>
       </c>
-      <c r="P152" s="1">
+      <c r="Q152" s="1">
         <v>3.76</v>
       </c>
-      <c r="Q152" s="1">
+      <c r="R152" s="1">
         <v>5.81</v>
       </c>
-      <c r="R152" s="1">
+      <c r="S152" s="1">
         <v>7.6</v>
       </c>
-      <c r="S152" s="1">
+      <c r="T152" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -9253,26 +9715,29 @@
       <c r="L153">
         <v>2</v>
       </c>
-      <c r="M153" s="1">
+      <c r="M153">
+        <v>10</v>
+      </c>
+      <c r="N153" s="1">
         <v>15.95</v>
       </c>
-      <c r="N153" s="1">
+      <c r="O153" s="1">
         <v>0.63</v>
       </c>
-      <c r="O153" s="1">
+      <c r="P153" s="1">
         <v>2.12</v>
       </c>
-      <c r="P153" s="1">
+      <c r="Q153" s="1">
         <v>5.05</v>
       </c>
-      <c r="Q153" s="1">
+      <c r="R153" s="1">
         <v>3.64</v>
       </c>
-      <c r="R153" s="1">
+      <c r="S153" s="1">
         <v>4.49</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -9309,26 +9774,29 @@
       <c r="L154">
         <v>2</v>
       </c>
-      <c r="M154" s="1">
+      <c r="M154">
+        <v>11</v>
+      </c>
+      <c r="N154" s="1">
         <v>13.5</v>
       </c>
-      <c r="N154" s="1">
+      <c r="O154" s="1">
         <v>2.97</v>
       </c>
-      <c r="O154" s="1">
+      <c r="P154" s="1">
         <v>2.67</v>
       </c>
-      <c r="P154" s="1">
+      <c r="Q154" s="1">
         <v>0.21</v>
       </c>
-      <c r="Q154" s="1">
+      <c r="R154" s="1">
         <v>5.17</v>
       </c>
-      <c r="R154" s="1">
+      <c r="S154" s="1">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -9365,29 +9833,32 @@
       <c r="L155">
         <v>3</v>
       </c>
-      <c r="M155" s="1">
+      <c r="M155">
+        <v>12</v>
+      </c>
+      <c r="N155" s="1">
         <v>27.59</v>
       </c>
-      <c r="N155" s="1">
+      <c r="O155" s="1">
         <v>4.79</v>
       </c>
-      <c r="O155" s="1">
+      <c r="P155" s="1">
         <v>6.31</v>
       </c>
-      <c r="P155" s="1">
+      <c r="Q155" s="1">
         <v>5.45</v>
       </c>
-      <c r="Q155" s="1">
+      <c r="R155" s="1">
         <v>0.94</v>
       </c>
-      <c r="R155" s="1">
+      <c r="S155" s="1">
         <v>5.23</v>
       </c>
-      <c r="S155" s="1">
+      <c r="T155" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -9424,29 +9895,32 @@
       <c r="L156">
         <v>3</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156">
+        <v>13</v>
+      </c>
+      <c r="N156" s="1">
         <v>10.95</v>
       </c>
-      <c r="N156" s="1">
+      <c r="O156" s="1">
         <v>2.09</v>
       </c>
-      <c r="O156" s="1">
+      <c r="P156" s="1">
         <v>1.44</v>
       </c>
-      <c r="P156" s="1">
+      <c r="Q156" s="1">
         <v>1.02</v>
       </c>
-      <c r="Q156" s="1">
+      <c r="R156" s="1">
         <v>0.77</v>
       </c>
-      <c r="R156" s="1">
+      <c r="S156" s="1">
         <v>4.2300000000000004</v>
       </c>
-      <c r="S156" s="1">
+      <c r="T156" s="1">
         <v>1.36</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -9483,29 +9957,32 @@
       <c r="L157">
         <v>3</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M157">
+        <v>14</v>
+      </c>
+      <c r="N157" s="1">
         <v>15</v>
       </c>
-      <c r="N157" s="1">
+      <c r="O157" s="1">
         <v>0.94</v>
       </c>
-      <c r="O157" s="1">
+      <c r="P157" s="1">
         <v>1.07</v>
       </c>
-      <c r="P157" s="1">
+      <c r="Q157" s="1">
         <v>3.16</v>
       </c>
-      <c r="Q157" s="1">
+      <c r="R157" s="1">
         <v>3.42</v>
       </c>
-      <c r="R157" s="1">
+      <c r="S157" s="1">
         <v>3.37</v>
       </c>
-      <c r="S157" s="1">
+      <c r="T157" s="1">
         <v>2.86</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -9542,29 +10019,32 @@
       <c r="L158">
         <v>3</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M158">
+        <v>15</v>
+      </c>
+      <c r="N158" s="1">
         <v>20.86</v>
       </c>
-      <c r="N158" s="1">
+      <c r="O158" s="1">
         <v>1.01</v>
       </c>
-      <c r="O158" s="1">
+      <c r="P158" s="1">
         <v>4.7</v>
       </c>
-      <c r="P158" s="1">
+      <c r="Q158" s="1">
         <v>5.13</v>
       </c>
-      <c r="Q158" s="1">
+      <c r="R158" s="1">
         <v>4.59</v>
       </c>
-      <c r="R158" s="1">
+      <c r="S158" s="1">
         <v>3.2</v>
       </c>
-      <c r="S158" s="1">
+      <c r="T158" s="1">
         <v>2.41</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -9601,29 +10081,32 @@
       <c r="L159">
         <v>3</v>
       </c>
-      <c r="M159" s="1">
+      <c r="M159">
+        <v>16</v>
+      </c>
+      <c r="N159" s="1">
         <v>30.78</v>
       </c>
-      <c r="N159" s="1">
+      <c r="O159" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O159" s="1">
+      <c r="P159" s="1">
         <v>0.94</v>
       </c>
-      <c r="P159" s="1">
+      <c r="Q159" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="Q159" s="1">
+      <c r="R159" s="1">
         <v>7.25</v>
       </c>
-      <c r="R159" s="1">
+      <c r="S159" s="1">
         <v>5.43</v>
       </c>
-      <c r="S159" s="1">
+      <c r="T159" s="1">
         <v>6.28</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -9660,29 +10143,32 @@
       <c r="L160">
         <v>4</v>
       </c>
-      <c r="M160" s="1">
+      <c r="M160">
+        <v>17</v>
+      </c>
+      <c r="N160" s="1">
         <v>10.33</v>
       </c>
-      <c r="N160" s="1">
+      <c r="O160" s="1">
         <v>2.02</v>
       </c>
-      <c r="O160" s="1">
+      <c r="P160" s="1">
         <v>0.69</v>
       </c>
-      <c r="P160" s="1">
+      <c r="Q160" s="1">
         <v>1.54</v>
       </c>
-      <c r="Q160" s="1">
+      <c r="R160" s="1">
         <v>2.58</v>
       </c>
-      <c r="R160" s="1">
+      <c r="S160" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S160" s="1">
+      <c r="T160" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -9719,29 +10205,32 @@
       <c r="L161">
         <v>4</v>
       </c>
-      <c r="M161" s="1">
+      <c r="M161">
+        <v>18</v>
+      </c>
+      <c r="N161" s="1">
         <v>11.79</v>
       </c>
-      <c r="N161" s="1">
+      <c r="O161" s="1">
         <v>1.17</v>
       </c>
-      <c r="O161" s="1">
+      <c r="P161" s="1">
         <v>3.31</v>
       </c>
-      <c r="P161" s="1">
+      <c r="Q161" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q161" s="1">
+      <c r="R161" s="1">
         <v>2.54</v>
       </c>
-      <c r="R161" s="1">
+      <c r="S161" s="1">
         <v>1.06</v>
       </c>
-      <c r="S161" s="1">
+      <c r="T161" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -9778,29 +10267,32 @@
       <c r="L162">
         <v>4</v>
       </c>
-      <c r="M162" s="1">
+      <c r="M162">
+        <v>19</v>
+      </c>
+      <c r="N162" s="1">
         <v>25</v>
       </c>
-      <c r="N162" s="1">
+      <c r="O162" s="1">
         <v>2.48</v>
       </c>
-      <c r="O162" s="1">
+      <c r="P162" s="1">
         <v>7.25</v>
       </c>
-      <c r="P162" s="1">
+      <c r="Q162" s="1">
         <v>9.4</v>
       </c>
-      <c r="Q162" s="1">
-        <v>1</v>
-      </c>
       <c r="R162" s="1">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1">
         <v>1.9</v>
       </c>
-      <c r="S162" s="1">
+      <c r="T162" s="1">
         <v>1.75</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -9837,29 +10329,32 @@
       <c r="L163">
         <v>4</v>
       </c>
-      <c r="M163" s="1">
-        <v>16</v>
+      <c r="M163">
+        <v>20</v>
       </c>
       <c r="N163" s="1">
+        <v>16</v>
+      </c>
+      <c r="O163" s="1">
         <v>1.49</v>
       </c>
-      <c r="O163" s="1">
+      <c r="P163" s="1">
         <v>2.78</v>
       </c>
-      <c r="P163" s="1">
+      <c r="Q163" s="1">
         <v>1.37</v>
       </c>
-      <c r="Q163" s="1">
+      <c r="R163" s="1">
         <v>4.78</v>
       </c>
-      <c r="R163" s="1">
+      <c r="S163" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="S163" s="1">
+      <c r="T163" s="1">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -9896,26 +10391,29 @@
       <c r="L164">
         <v>4</v>
       </c>
-      <c r="M164" s="1">
+      <c r="M164">
+        <v>21</v>
+      </c>
+      <c r="N164" s="1">
         <v>23.7</v>
       </c>
-      <c r="N164" s="1">
+      <c r="O164" s="1">
         <v>2.19</v>
       </c>
-      <c r="O164" s="1">
+      <c r="P164" s="1">
         <v>5.35</v>
       </c>
-      <c r="P164" s="1">
+      <c r="Q164" s="1">
         <v>8.94</v>
       </c>
-      <c r="Q164" s="1">
+      <c r="R164" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="R164" s="1">
+      <c r="S164" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -9952,29 +10450,32 @@
       <c r="L165">
         <v>4</v>
       </c>
-      <c r="M165" s="1">
+      <c r="M165">
+        <v>22</v>
+      </c>
+      <c r="N165" s="1">
         <v>17.77</v>
       </c>
-      <c r="N165" s="1">
+      <c r="O165" s="1">
         <v>1.08</v>
       </c>
-      <c r="O165" s="1">
+      <c r="P165" s="1">
         <v>3.32</v>
       </c>
-      <c r="P165" s="1">
+      <c r="Q165" s="1">
         <v>4.01</v>
       </c>
-      <c r="Q165" s="1">
+      <c r="R165" s="1">
         <v>3.48</v>
       </c>
-      <c r="R165" s="1">
+      <c r="S165" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S165" s="1">
+      <c r="T165" s="1">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -10011,29 +10512,32 @@
       <c r="L166">
         <v>5</v>
       </c>
-      <c r="M166" s="1">
+      <c r="M166">
+        <v>23</v>
+      </c>
+      <c r="N166" s="1">
         <v>12.62</v>
       </c>
-      <c r="N166" s="1">
+      <c r="O166" s="1">
         <v>2.62</v>
       </c>
-      <c r="O166" s="1">
+      <c r="P166" s="1">
         <v>1.71</v>
       </c>
-      <c r="P166" s="1">
+      <c r="Q166" s="1">
         <v>1.68</v>
       </c>
-      <c r="Q166" s="1">
+      <c r="R166" s="1">
         <v>0.39</v>
       </c>
-      <c r="R166" s="1">
+      <c r="S166" s="1">
         <v>3.27</v>
       </c>
-      <c r="S166" s="1">
+      <c r="T166" s="1">
         <v>2.87</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -10070,23 +10574,26 @@
       <c r="L167">
         <v>5</v>
       </c>
-      <c r="M167" s="1">
+      <c r="M167">
+        <v>24</v>
+      </c>
+      <c r="N167" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="N167" s="1">
+      <c r="O167" s="1">
         <v>5.43</v>
       </c>
-      <c r="O167" s="1">
+      <c r="P167" s="1">
         <v>4.46</v>
       </c>
-      <c r="P167" s="1">
+      <c r="Q167" s="1">
         <v>0.64</v>
       </c>
-      <c r="Q167" s="1">
+      <c r="R167" s="1">
         <v>7.02</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -10123,29 +10630,32 @@
       <c r="L168">
         <v>5</v>
       </c>
-      <c r="M168" s="1">
+      <c r="M168">
+        <v>25</v>
+      </c>
+      <c r="N168" s="1">
         <v>21.04</v>
       </c>
-      <c r="N168" s="1">
+      <c r="O168" s="1">
         <v>0.62</v>
       </c>
-      <c r="O168" s="1">
+      <c r="P168" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P168" s="1">
+      <c r="Q168" s="1">
         <v>3.89</v>
       </c>
-      <c r="Q168" s="1">
+      <c r="R168" s="1">
         <v>4.82</v>
       </c>
-      <c r="R168" s="1">
+      <c r="S168" s="1">
         <v>2.98</v>
       </c>
-      <c r="S168" s="1">
+      <c r="T168" s="1">
         <v>4.54</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -10182,26 +10692,29 @@
       <c r="L169">
         <v>5</v>
       </c>
-      <c r="M169" s="1">
+      <c r="M169">
+        <v>26</v>
+      </c>
+      <c r="N169" s="1">
         <v>21.13</v>
       </c>
-      <c r="N169" s="1">
+      <c r="O169" s="1">
         <v>4.75</v>
       </c>
-      <c r="O169" s="1">
+      <c r="P169" s="1">
         <v>4.8899999999999997</v>
       </c>
-      <c r="P169" s="1">
+      <c r="Q169" s="1">
         <v>6.1</v>
       </c>
-      <c r="Q169" s="1">
+      <c r="R169" s="1">
         <v>1.3</v>
       </c>
-      <c r="R169" s="1">
+      <c r="S169" s="1">
         <v>4.76</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -10238,29 +10751,32 @@
       <c r="L170">
         <v>5</v>
       </c>
-      <c r="M170" s="1">
+      <c r="M170">
+        <v>27</v>
+      </c>
+      <c r="N170" s="1">
         <v>21</v>
       </c>
-      <c r="N170" s="1">
+      <c r="O170" s="1">
         <v>2.09</v>
       </c>
-      <c r="O170" s="1">
+      <c r="P170" s="1">
         <v>3.44</v>
       </c>
-      <c r="P170" s="1">
+      <c r="Q170" s="1">
         <v>6.34</v>
       </c>
-      <c r="Q170" s="1">
+      <c r="R170" s="1">
         <v>1.29</v>
       </c>
-      <c r="R170" s="1">
+      <c r="S170" s="1">
         <v>4.6399999999999997</v>
       </c>
-      <c r="S170" s="1">
+      <c r="T170" s="1">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -10297,26 +10813,29 @@
       <c r="L171">
         <v>6</v>
       </c>
-      <c r="M171" s="1">
+      <c r="M171">
+        <v>28</v>
+      </c>
+      <c r="N171" s="1">
         <v>9.75</v>
       </c>
-      <c r="N171" s="1">
+      <c r="O171" s="1">
         <v>2.62</v>
       </c>
-      <c r="O171" s="1">
+      <c r="P171" s="1">
         <v>2</v>
       </c>
-      <c r="P171" s="1">
+      <c r="Q171" s="1">
         <v>0.47</v>
       </c>
-      <c r="Q171" s="1">
+      <c r="R171" s="1">
         <v>2.25</v>
       </c>
-      <c r="R171" s="1">
+      <c r="S171" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -10353,26 +10872,29 @@
       <c r="L172">
         <v>6</v>
       </c>
-      <c r="M172" s="1">
+      <c r="M172">
+        <v>29</v>
+      </c>
+      <c r="N172" s="1">
         <v>11.25</v>
       </c>
-      <c r="N172" s="1">
+      <c r="O172" s="1">
         <v>0.7</v>
       </c>
-      <c r="O172" s="1">
+      <c r="P172" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P172" s="1">
+      <c r="Q172" s="1">
         <v>3.37</v>
       </c>
-      <c r="Q172" s="1">
+      <c r="R172" s="1">
         <v>1.52</v>
       </c>
-      <c r="R172" s="1">
+      <c r="S172" s="1">
         <v>3.35</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -10409,26 +10931,29 @@
       <c r="L173">
         <v>6</v>
       </c>
-      <c r="M173" s="1">
+      <c r="M173">
+        <v>30</v>
+      </c>
+      <c r="N173" s="1">
         <v>15.79</v>
       </c>
-      <c r="N173" s="1">
+      <c r="O173" s="1">
         <v>3.05</v>
       </c>
-      <c r="O173" s="1">
+      <c r="P173" s="1">
         <v>3.26</v>
       </c>
-      <c r="P173" s="1">
+      <c r="Q173" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q173" s="1">
+      <c r="R173" s="1">
         <v>3.71</v>
       </c>
-      <c r="R173" s="1">
+      <c r="S173" s="1">
         <v>3.01</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -10465,23 +10990,26 @@
       <c r="L174">
         <v>6</v>
       </c>
-      <c r="M174" s="1">
+      <c r="M174">
+        <v>31</v>
+      </c>
+      <c r="N174" s="1">
         <v>14.05</v>
       </c>
-      <c r="N174" s="1">
+      <c r="O174" s="1">
         <v>1.26</v>
       </c>
-      <c r="O174" s="1">
+      <c r="P174" s="1">
         <v>3.72</v>
       </c>
-      <c r="P174" s="1">
+      <c r="Q174" s="1">
         <v>1.82</v>
       </c>
-      <c r="Q174" s="1">
+      <c r="R174" s="1">
         <v>7.24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -10518,26 +11046,29 @@
       <c r="L175">
         <v>6</v>
       </c>
-      <c r="M175" s="1">
+      <c r="M175">
+        <v>32</v>
+      </c>
+      <c r="N175" s="1">
         <v>13.85</v>
       </c>
-      <c r="N175" s="1">
+      <c r="O175" s="1">
         <v>2.83</v>
       </c>
-      <c r="O175" s="1">
+      <c r="P175" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="P175" s="1">
+      <c r="Q175" s="1">
         <v>1.18</v>
       </c>
-      <c r="Q175" s="1">
+      <c r="R175" s="1">
         <v>0.72</v>
       </c>
-      <c r="R175" s="1">
+      <c r="S175" s="1">
         <v>4.79</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -10574,29 +11105,32 @@
       <c r="L176">
         <v>6</v>
       </c>
-      <c r="M176" s="1">
+      <c r="M176">
+        <v>33</v>
+      </c>
+      <c r="N176" s="1">
         <v>30.61</v>
       </c>
-      <c r="N176" s="1">
+      <c r="O176" s="1">
         <v>6</v>
       </c>
-      <c r="O176" s="1">
+      <c r="P176" s="1">
         <v>1.46</v>
       </c>
-      <c r="P176" s="1">
+      <c r="Q176" s="1">
         <v>6.08</v>
       </c>
-      <c r="Q176" s="1">
+      <c r="R176" s="1">
         <v>7.09</v>
       </c>
-      <c r="R176" s="1">
+      <c r="S176" s="1">
         <v>5.18</v>
       </c>
-      <c r="S176" s="1">
+      <c r="T176" s="1">
         <v>4.33</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -10633,26 +11167,29 @@
       <c r="L177">
         <v>7</v>
       </c>
-      <c r="M177" s="1">
+      <c r="M177">
+        <v>34</v>
+      </c>
+      <c r="N177" s="1">
         <v>11.91</v>
       </c>
-      <c r="N177" s="1">
+      <c r="O177" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O177" s="1">
+      <c r="P177" s="1">
         <v>2.99</v>
       </c>
-      <c r="P177" s="1">
+      <c r="Q177" s="1">
         <v>2.74</v>
       </c>
-      <c r="Q177" s="1">
+      <c r="R177" s="1">
         <v>3.43</v>
       </c>
-      <c r="R177" s="1">
+      <c r="S177" s="1">
         <v>1.55</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -10689,26 +11226,29 @@
       <c r="L178">
         <v>7</v>
       </c>
-      <c r="M178" s="1">
+      <c r="M178">
+        <v>35</v>
+      </c>
+      <c r="N178" s="1">
         <v>12.33</v>
       </c>
-      <c r="N178" s="1">
+      <c r="O178" s="1">
         <v>2.31</v>
       </c>
-      <c r="O178" s="1">
+      <c r="P178" s="1">
         <v>3.45</v>
       </c>
-      <c r="P178" s="1">
+      <c r="Q178" s="1">
         <v>1.49</v>
       </c>
-      <c r="Q178" s="1">
+      <c r="R178" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R178" s="1">
+      <c r="S178" s="1">
         <v>2.71</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -10745,29 +11285,32 @@
       <c r="L179">
         <v>7</v>
       </c>
-      <c r="M179" s="1">
+      <c r="M179">
+        <v>36</v>
+      </c>
+      <c r="N179" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="N179" s="1">
+      <c r="O179" s="1">
         <v>0.79</v>
       </c>
-      <c r="O179" s="1">
+      <c r="P179" s="1">
         <v>3.14</v>
       </c>
-      <c r="P179" s="1">
-        <v>3</v>
-      </c>
       <c r="Q179" s="1">
+        <v>3</v>
+      </c>
+      <c r="R179" s="1">
         <v>4.25</v>
       </c>
-      <c r="R179" s="1">
+      <c r="S179" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="S179" s="1">
+      <c r="T179" s="1">
         <v>3.34</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -10804,32 +11347,35 @@
       <c r="L180">
         <v>7</v>
       </c>
-      <c r="M180" s="1">
+      <c r="M180">
+        <v>37</v>
+      </c>
+      <c r="N180" s="1">
         <v>10.69</v>
       </c>
-      <c r="N180" s="1">
+      <c r="O180" s="1">
         <v>0.37</v>
       </c>
-      <c r="O180" s="1">
+      <c r="P180" s="1">
         <v>0.27</v>
       </c>
-      <c r="P180" s="1">
+      <c r="Q180" s="1">
         <v>0.87</v>
       </c>
-      <c r="Q180" s="1">
+      <c r="R180" s="1">
         <v>0.4</v>
       </c>
-      <c r="R180" s="1">
+      <c r="S180" s="1">
         <v>3.41</v>
       </c>
-      <c r="S180" s="1">
+      <c r="T180" s="1">
         <v>2.44</v>
       </c>
-      <c r="T180" s="1">
+      <c r="U180" s="1">
         <v>2.86</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -10866,29 +11412,32 @@
       <c r="L181">
         <v>7</v>
       </c>
-      <c r="M181" s="1">
-        <v>16</v>
+      <c r="M181">
+        <v>38</v>
       </c>
       <c r="N181" s="1">
+        <v>16</v>
+      </c>
+      <c r="O181" s="1">
         <v>1.7</v>
       </c>
-      <c r="O181" s="1">
+      <c r="P181" s="1">
         <v>3.37</v>
       </c>
-      <c r="P181" s="1">
+      <c r="Q181" s="1">
         <v>1.76</v>
       </c>
-      <c r="Q181" s="1">
+      <c r="R181" s="1">
         <v>3.93</v>
       </c>
-      <c r="R181" s="1">
+      <c r="S181" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S181" s="1">
+      <c r="T181" s="1">
         <v>2.86</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -10925,29 +11474,32 @@
       <c r="L182">
         <v>8</v>
       </c>
-      <c r="M182" s="1">
+      <c r="M182">
+        <v>39</v>
+      </c>
+      <c r="N182" s="1">
         <v>13.16</v>
       </c>
-      <c r="N182" s="1">
+      <c r="O182" s="1">
         <v>2.86</v>
       </c>
-      <c r="O182" s="1">
+      <c r="P182" s="1">
         <v>2.33</v>
       </c>
-      <c r="P182" s="1">
+      <c r="Q182" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Q182" s="1">
+      <c r="R182" s="1">
         <v>1.64</v>
       </c>
-      <c r="R182" s="1">
+      <c r="S182" s="1">
         <v>2.15</v>
       </c>
-      <c r="S182" s="1">
+      <c r="T182" s="1">
         <v>1.63</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -10984,26 +11536,29 @@
       <c r="L183">
         <v>8</v>
       </c>
-      <c r="M183" s="1">
+      <c r="M183">
+        <v>40</v>
+      </c>
+      <c r="N183" s="1">
         <v>12.29</v>
       </c>
-      <c r="N183" s="1">
+      <c r="O183" s="1">
         <v>1.66</v>
       </c>
-      <c r="O183" s="1">
+      <c r="P183" s="1">
         <v>0.35</v>
       </c>
-      <c r="P183" s="1">
+      <c r="Q183" s="1">
         <v>3.43</v>
       </c>
-      <c r="Q183" s="1">
+      <c r="R183" s="1">
         <v>2.94</v>
       </c>
-      <c r="R183" s="1">
+      <c r="S183" s="1">
         <v>3.91</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -11040,26 +11595,29 @@
       <c r="L184">
         <v>8</v>
       </c>
-      <c r="M184" s="1">
+      <c r="M184">
+        <v>41</v>
+      </c>
+      <c r="N184" s="1">
         <v>17.77</v>
       </c>
-      <c r="N184" s="1">
+      <c r="O184" s="1">
         <v>3.71</v>
       </c>
-      <c r="O184" s="1">
+      <c r="P184" s="1">
         <v>2.08</v>
       </c>
-      <c r="P184" s="1">
+      <c r="Q184" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q184" s="1">
+      <c r="R184" s="1">
         <v>3.39</v>
       </c>
-      <c r="R184" s="1">
+      <c r="S184" s="1">
         <v>3.72</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -11096,29 +11654,32 @@
       <c r="L185">
         <v>8</v>
       </c>
-      <c r="M185" s="1">
+      <c r="M185">
+        <v>42</v>
+      </c>
+      <c r="N185" s="1">
         <v>18.079999999999998</v>
       </c>
-      <c r="N185" s="1">
+      <c r="O185" s="1">
         <v>1.48</v>
       </c>
-      <c r="O185" s="1">
+      <c r="P185" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P185" s="1">
+      <c r="Q185" s="1">
         <v>3.57</v>
       </c>
-      <c r="Q185" s="1">
+      <c r="R185" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="R185" s="1">
+      <c r="S185" s="1">
         <v>1.52</v>
       </c>
-      <c r="S185" s="1">
+      <c r="T185" s="1">
         <v>3.31</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -11155,26 +11716,29 @@
       <c r="L186">
         <v>8</v>
       </c>
-      <c r="M186" s="1">
+      <c r="M186">
+        <v>43</v>
+      </c>
+      <c r="N186" s="1">
         <v>18.05</v>
       </c>
-      <c r="N186" s="1">
+      <c r="O186" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="O186" s="1">
+      <c r="P186" s="1">
         <v>3.66</v>
       </c>
-      <c r="P186" s="1">
+      <c r="Q186" s="1">
         <v>3.67</v>
       </c>
-      <c r="Q186" s="1">
+      <c r="R186" s="1">
         <v>3.91</v>
       </c>
-      <c r="R186" s="1">
+      <c r="S186" s="1">
         <v>4.22</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -11211,26 +11775,29 @@
       <c r="L187">
         <v>8</v>
       </c>
-      <c r="M187" s="1">
+      <c r="M187">
+        <v>44</v>
+      </c>
+      <c r="N187" s="1">
         <v>23.69</v>
       </c>
-      <c r="N187" s="1">
+      <c r="O187" s="1">
         <v>6.69</v>
       </c>
-      <c r="O187" s="1">
+      <c r="P187" s="1">
         <v>4.13</v>
       </c>
-      <c r="P187" s="1">
-        <v>4</v>
-      </c>
       <c r="Q187" s="1">
+        <v>4</v>
+      </c>
+      <c r="R187" s="1">
         <v>1.34</v>
       </c>
-      <c r="R187" s="1">
+      <c r="S187" s="1">
         <v>7.31</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -11267,29 +11834,32 @@
       <c r="L188">
         <v>9</v>
       </c>
-      <c r="M188" s="1">
+      <c r="M188">
+        <v>45</v>
+      </c>
+      <c r="N188" s="1">
         <v>9.76</v>
       </c>
-      <c r="N188" s="1">
+      <c r="O188" s="1">
         <v>1.93</v>
       </c>
-      <c r="O188" s="1">
+      <c r="P188" s="1">
         <v>1.59</v>
       </c>
-      <c r="P188" s="1">
+      <c r="Q188" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q188" s="1">
+      <c r="R188" s="1">
         <v>1.89</v>
       </c>
-      <c r="R188" s="1">
+      <c r="S188" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S188" s="1">
+      <c r="T188" s="1">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -11326,29 +11896,32 @@
       <c r="L189">
         <v>9</v>
       </c>
-      <c r="M189" s="1">
+      <c r="M189">
+        <v>46</v>
+      </c>
+      <c r="N189" s="1">
         <v>17.57</v>
       </c>
-      <c r="N189" s="1">
+      <c r="O189" s="1">
         <v>1.34</v>
       </c>
-      <c r="O189" s="1">
+      <c r="P189" s="1">
         <v>0.78</v>
       </c>
-      <c r="P189" s="1">
+      <c r="Q189" s="1">
         <v>4.29</v>
       </c>
-      <c r="Q189" s="1">
+      <c r="R189" s="1">
         <v>4.82</v>
       </c>
-      <c r="R189" s="1">
+      <c r="S189" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S189" s="1">
+      <c r="T189" s="1">
         <v>1.18</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -11385,26 +11958,29 @@
       <c r="L190">
         <v>9</v>
       </c>
-      <c r="M190" s="1">
+      <c r="M190">
+        <v>47</v>
+      </c>
+      <c r="N190" s="1">
         <v>20.27</v>
       </c>
-      <c r="N190" s="1">
+      <c r="O190" s="1">
         <v>6.49</v>
       </c>
-      <c r="O190" s="1">
+      <c r="P190" s="1">
         <v>1.29</v>
       </c>
-      <c r="P190" s="1">
+      <c r="Q190" s="1">
         <v>8.74</v>
       </c>
-      <c r="Q190" s="1">
+      <c r="R190" s="1">
         <v>1.67</v>
       </c>
-      <c r="R190" s="1">
+      <c r="S190" s="1">
         <v>2.35</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -11441,29 +12017,32 @@
       <c r="L191">
         <v>9</v>
       </c>
-      <c r="M191" s="1">
+      <c r="M191">
+        <v>48</v>
+      </c>
+      <c r="N191" s="1">
         <v>22.63</v>
       </c>
-      <c r="N191" s="1">
+      <c r="O191" s="1">
         <v>0.8</v>
       </c>
-      <c r="O191" s="1">
+      <c r="P191" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P191" s="1">
+      <c r="Q191" s="1">
         <v>3.39</v>
       </c>
-      <c r="Q191" s="1">
+      <c r="R191" s="1">
         <v>3.5</v>
       </c>
-      <c r="R191" s="1">
+      <c r="S191" s="1">
         <v>6.97</v>
       </c>
-      <c r="S191" s="1">
+      <c r="T191" s="1">
         <v>5.85</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -11500,29 +12079,32 @@
       <c r="L192">
         <v>9</v>
       </c>
-      <c r="M192" s="1">
+      <c r="M192">
+        <v>49</v>
+      </c>
+      <c r="N192" s="1">
         <v>23.6</v>
       </c>
-      <c r="N192" s="1">
+      <c r="O192" s="1">
         <v>3.42</v>
       </c>
-      <c r="O192" s="1">
+      <c r="P192" s="1">
         <v>5.91</v>
       </c>
-      <c r="P192" s="1">
+      <c r="Q192" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q192" s="1">
+      <c r="R192" s="1">
         <v>4.2699999999999996</v>
       </c>
-      <c r="R192" s="1">
+      <c r="S192" s="1">
         <v>6.93</v>
       </c>
-      <c r="S192" s="1">
+      <c r="T192" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -11559,29 +12141,32 @@
       <c r="L193">
         <v>10</v>
       </c>
-      <c r="M193" s="1">
+      <c r="M193">
+        <v>50</v>
+      </c>
+      <c r="N193" s="1">
         <v>5.17</v>
       </c>
-      <c r="N193" s="1">
+      <c r="O193" s="1">
         <v>0.77</v>
       </c>
-      <c r="O193" s="1">
+      <c r="P193" s="1">
         <v>0.27</v>
       </c>
-      <c r="P193" s="1">
+      <c r="Q193" s="1">
         <v>0.65</v>
       </c>
-      <c r="Q193" s="1">
+      <c r="R193" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R193" s="1">
+      <c r="S193" s="1">
         <v>0.89</v>
       </c>
-      <c r="S193" s="1">
+      <c r="T193" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -11618,26 +12203,29 @@
       <c r="L194">
         <v>10</v>
       </c>
-      <c r="M194" s="1">
+      <c r="M194">
+        <v>51</v>
+      </c>
+      <c r="N194" s="1">
         <v>10.36</v>
       </c>
-      <c r="N194" s="1">
+      <c r="O194" s="1">
         <v>1.24</v>
       </c>
-      <c r="O194" s="1">
+      <c r="P194" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P194" s="1">
+      <c r="Q194" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q194" s="1">
+      <c r="R194" s="1">
         <v>2.41</v>
       </c>
-      <c r="R194" s="1">
+      <c r="S194" s="1">
         <v>2.38</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -11674,29 +12262,32 @@
       <c r="L195">
         <v>10</v>
       </c>
-      <c r="M195" s="1">
+      <c r="M195">
+        <v>52</v>
+      </c>
+      <c r="N195" s="1">
         <v>18.309999999999999</v>
       </c>
-      <c r="N195" s="1">
+      <c r="O195" s="1">
         <v>4.3099999999999996</v>
       </c>
-      <c r="O195" s="1">
+      <c r="P195" s="1">
         <v>3.19</v>
       </c>
-      <c r="P195" s="1">
+      <c r="Q195" s="1">
         <v>1.47</v>
       </c>
-      <c r="Q195" s="1">
+      <c r="R195" s="1">
         <v>1.64</v>
       </c>
-      <c r="R195" s="1">
+      <c r="S195" s="1">
         <v>3.71</v>
       </c>
-      <c r="S195" s="1">
+      <c r="T195" s="1">
         <v>4.21</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -11733,26 +12324,29 @@
       <c r="L196">
         <v>10</v>
       </c>
-      <c r="M196" s="1">
+      <c r="M196">
+        <v>53</v>
+      </c>
+      <c r="N196" s="1">
         <v>15.57</v>
       </c>
-      <c r="N196" s="1">
+      <c r="O196" s="1">
         <v>1.41</v>
       </c>
-      <c r="O196" s="1">
+      <c r="P196" s="1">
         <v>2.63</v>
       </c>
-      <c r="P196" s="1">
+      <c r="Q196" s="1">
         <v>5.56</v>
       </c>
-      <c r="Q196" s="1">
+      <c r="R196" s="1">
         <v>4.5199999999999996</v>
       </c>
-      <c r="R196" s="1">
+      <c r="S196" s="1">
         <v>1.69</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -11789,23 +12383,26 @@
       <c r="L197">
         <v>10</v>
       </c>
-      <c r="M197" s="1">
+      <c r="M197">
+        <v>54</v>
+      </c>
+      <c r="N197" s="1">
         <v>18.829999999999998</v>
       </c>
-      <c r="N197" s="1">
+      <c r="O197" s="1">
         <v>5.72</v>
       </c>
-      <c r="O197" s="1">
+      <c r="P197" s="1">
         <v>3.13</v>
       </c>
-      <c r="P197" s="1">
+      <c r="Q197" s="1">
         <v>3.88</v>
       </c>
-      <c r="Q197" s="1">
+      <c r="R197" s="1">
         <v>4.96</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -11842,29 +12439,32 @@
       <c r="L198">
         <v>10</v>
       </c>
-      <c r="M198" s="1">
+      <c r="M198">
+        <v>55</v>
+      </c>
+      <c r="N198" s="1">
         <v>21.44</v>
       </c>
-      <c r="N198" s="1">
+      <c r="O198" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="O198" s="1">
+      <c r="P198" s="1">
         <v>2.33</v>
       </c>
-      <c r="P198" s="1">
+      <c r="Q198" s="1">
         <v>5.85</v>
       </c>
-      <c r="Q198" s="1">
+      <c r="R198" s="1">
         <v>6.14</v>
       </c>
-      <c r="R198" s="1">
+      <c r="S198" s="1">
         <v>0.81</v>
       </c>
-      <c r="S198" s="1">
+      <c r="T198" s="1">
         <v>4.87</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -11901,29 +12501,32 @@
       <c r="L199">
         <v>11</v>
       </c>
-      <c r="M199" s="1">
+      <c r="M199">
+        <v>56</v>
+      </c>
+      <c r="N199" s="1">
         <v>11.26</v>
       </c>
-      <c r="N199" s="1">
+      <c r="O199" s="1">
         <v>3.01</v>
       </c>
-      <c r="O199" s="1">
+      <c r="P199" s="1">
         <v>3.02</v>
       </c>
-      <c r="P199" s="1">
+      <c r="Q199" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q199" s="1">
+      <c r="R199" s="1">
         <v>1.41</v>
       </c>
-      <c r="R199" s="1">
+      <c r="S199" s="1">
         <v>1.66</v>
       </c>
-      <c r="S199" s="1">
+      <c r="T199" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -11960,29 +12563,32 @@
       <c r="L200">
         <v>11</v>
       </c>
-      <c r="M200" s="1">
+      <c r="M200">
+        <v>57</v>
+      </c>
+      <c r="N200" s="1">
         <v>11.22</v>
       </c>
-      <c r="N200" s="1">
+      <c r="O200" s="1">
         <v>0.87</v>
       </c>
-      <c r="O200" s="1">
+      <c r="P200" s="1">
         <v>1.04</v>
       </c>
-      <c r="P200" s="1">
+      <c r="Q200" s="1">
         <v>2.75</v>
       </c>
-      <c r="Q200" s="1">
+      <c r="R200" s="1">
         <v>0.82</v>
       </c>
-      <c r="R200" s="1">
+      <c r="S200" s="1">
         <v>2.46</v>
       </c>
-      <c r="S200" s="1">
+      <c r="T200" s="1">
         <v>3.27</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -12019,26 +12625,29 @@
       <c r="L201">
         <v>11</v>
       </c>
-      <c r="M201" s="1">
+      <c r="M201">
+        <v>58</v>
+      </c>
+      <c r="N201" s="1">
         <v>11.39</v>
       </c>
-      <c r="N201" s="1">
+      <c r="O201" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="O201" s="1">
+      <c r="P201" s="1">
         <v>1.91</v>
       </c>
-      <c r="P201" s="1">
+      <c r="Q201" s="1">
         <v>1.69</v>
       </c>
-      <c r="Q201" s="1">
+      <c r="R201" s="1">
         <v>2.33</v>
       </c>
-      <c r="R201" s="1">
+      <c r="S201" s="1">
         <v>2.96</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -12075,29 +12684,32 @@
       <c r="L202">
         <v>11</v>
       </c>
-      <c r="M202" s="1">
+      <c r="M202">
+        <v>59</v>
+      </c>
+      <c r="N202" s="1">
         <v>14.9</v>
       </c>
-      <c r="N202" s="1">
+      <c r="O202" s="1">
         <v>3.07</v>
       </c>
-      <c r="O202" s="1">
+      <c r="P202" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="P202" s="1">
+      <c r="Q202" s="1">
         <v>1.92</v>
       </c>
-      <c r="Q202" s="1">
+      <c r="R202" s="1">
         <v>3.54</v>
       </c>
-      <c r="R202" s="1">
+      <c r="S202" s="1">
         <v>1.73</v>
       </c>
-      <c r="S202" s="1">
+      <c r="T202" s="1">
         <v>0.66</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -12134,22 +12746,25 @@
       <c r="L203">
         <v>11</v>
       </c>
-      <c r="M203" s="1">
+      <c r="M203">
+        <v>60</v>
+      </c>
+      <c r="N203" s="1">
         <v>20.2</v>
       </c>
-      <c r="N203" s="1">
+      <c r="O203" s="1">
         <v>7.41</v>
       </c>
-      <c r="O203" s="1">
+      <c r="P203" s="1">
         <v>2.95</v>
       </c>
-      <c r="P203" s="1">
+      <c r="Q203" s="1">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Q203" s="1">
+      <c r="R203" s="1">
         <v>1.74</v>
       </c>
-      <c r="R203" s="1">
+      <c r="S203" s="1">
         <v>5.58</v>
       </c>
     </row>

--- a/examples/basil/basil.xlsx
+++ b/examples/basil/basil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchwtz/sciebo/courses/fhswf/examples/basil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABADBC-BB21-6B4F-AEDA-CF5D57719E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F0C0A-92BE-3348-994D-504CB151A5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15840" xr2:uid="{8623488A-28B7-4C23-96D7-E881FF6C0997}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:AA683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="O209" sqref="O209"/>
     </sheetView>
